--- a/data and code/effect_sizes_and_moderators.xlsx
+++ b/data and code/effect_sizes_and_moderators.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qduan/Documents/GitHub/ptg-covid/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qduan/Documents/GitHub/ptg-covid/data and code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54862DE9-FA57-7747-B184-305F78D95666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02403020-0B3B-8044-B5B9-AA61B4DE2D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34200" yWindow="-1120" windowWidth="19200" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t xml:space="preserve">Source </t>
   </si>
@@ -73,24 +73,12 @@
     <t>female proportion(Marg)</t>
   </si>
   <si>
-    <t>age range (Marg)</t>
-  </si>
-  <si>
-    <t>age group</t>
-  </si>
-  <si>
-    <t>study design (Q)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Adjorlolo et al. (2022) </t>
   </si>
   <si>
     <t>PTGI-SF</t>
   </si>
   <si>
-    <t>e.g. 18-49</t>
-  </si>
-  <si>
     <t xml:space="preserve">Arnout and Al‐Sufyani (2021) </t>
   </si>
   <si>
@@ -247,24 +235,15 @@
     <t xml:space="preserve">Read et al. (2022) </t>
   </si>
   <si>
-    <t>0.51, 0.68</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sarialioglu et al. (2022) </t>
   </si>
   <si>
-    <t>0.881, 0.868</t>
-  </si>
-  <si>
     <t xml:space="preserve">Uziel et al. (2021) </t>
   </si>
   <si>
     <t xml:space="preserve">Veronese et al. (2022) </t>
   </si>
   <si>
-    <t>0.488, 0.5, 0.519</t>
-  </si>
-  <si>
     <t>Wu (2024)</t>
   </si>
   <si>
@@ -326,17 +305,28 @@
   </si>
   <si>
     <t>Zurko et al. (2022)</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>population</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -377,14 +367,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:N76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -718,11 +709,9 @@
     <col min="10" max="10" width="5.6640625" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="19.6640625" customWidth="1"/>
-    <col min="13" max="13" width="14.5" customWidth="1"/>
-    <col min="15" max="15" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -759,22 +748,19 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="B2" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
       </c>
       <c r="C2">
         <v>22.257999999999999</v>
@@ -807,16 +793,13 @@
       <c r="L2" s="1">
         <v>0.40699999999999997</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>65.194999999999993</v>
@@ -850,12 +833,12 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>55.78</v>
@@ -889,12 +872,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <f>ROUND(38.09*10.7/100+73.78*20.1/100+57.91*42.2/100+79.47*27/100,2)</f>
@@ -928,12 +911,12 @@
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>28</v>
@@ -966,12 +949,12 @@
         <v>0.95599999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>45.57</v>
@@ -1004,12 +987,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>47.73</v>
@@ -1042,12 +1025,12 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>53.13</v>
@@ -1081,12 +1064,12 @@
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>12.64</v>
@@ -1119,12 +1102,12 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>78.400000000000006</v>
@@ -1157,12 +1140,12 @@
         <v>0.70899999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>96.26</v>
@@ -1195,12 +1178,12 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>47</v>
@@ -1233,12 +1216,12 @@
         <v>0.58799999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>21.6</v>
@@ -1268,15 +1251,15 @@
         <v>1</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>36.51</v>
@@ -1309,12 +1292,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>47.95</v>
@@ -1349,10 +1332,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C17">
         <v>21.9</v>
@@ -1382,15 +1365,15 @@
         <v>0</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C18">
         <v>63.49</v>
@@ -1425,10 +1408,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C19">
         <v>67.17</v>
@@ -1463,10 +1446,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C20">
         <v>58.34</v>
@@ -1501,10 +1484,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C21">
         <v>71.75</v>
@@ -1539,10 +1522,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C22">
         <v>30.33</v>
@@ -1577,10 +1560,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C23">
         <v>64.81</v>
@@ -1615,10 +1598,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C24">
         <v>46.81</v>
@@ -1653,10 +1636,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C25">
         <v>63.36</v>
@@ -1691,10 +1674,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C26">
         <v>31.82</v>
@@ -1729,10 +1712,10 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C27">
         <v>20.350000000000001</v>
@@ -1767,10 +1750,10 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C28">
         <v>51.44</v>
@@ -1805,10 +1788,10 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C29">
         <v>62.83</v>
@@ -1843,10 +1826,10 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C30">
         <f>ROUND((53.97*253+45.56*176)/(253+176),2)</f>
@@ -1883,10 +1866,10 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C31">
         <v>75.47</v>
@@ -1921,10 +1904,10 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C32">
         <v>70.91</v>
@@ -1959,10 +1942,10 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C33">
         <v>69.95</v>
@@ -1997,10 +1980,10 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C34">
         <v>40</v>
@@ -2036,10 +2019,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C35">
         <f>73.92 /25 * 21</f>
@@ -2076,10 +2059,10 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C36">
         <v>43.05</v>
@@ -2114,10 +2097,10 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C37" s="1">
         <v>34.51</v>
@@ -2152,10 +2135,10 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C38">
         <f>3.01 * 21</f>
@@ -2191,10 +2174,10 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C39" s="1">
         <f>2.3 * 10</f>
@@ -2231,10 +2214,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C40">
         <f>3.62 *10</f>
@@ -2271,10 +2254,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C41" s="1">
         <v>62.24</v>
@@ -2309,10 +2292,10 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C42">
         <v>47.4</v>
@@ -2347,10 +2330,10 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C43" s="1">
         <f>2.169 * 21</f>
@@ -2381,16 +2364,16 @@
       <c r="K43" s="1">
         <v>0</v>
       </c>
-      <c r="L43" s="1" t="s">
-        <v>31</v>
+      <c r="L43" s="1">
+        <v>0.7</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C44" s="1">
         <f>45.4545</f>
@@ -2426,10 +2409,10 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C45">
         <v>37.085999999999999</v>
@@ -2464,10 +2447,10 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C46">
         <f>4.11 * 10</f>
@@ -2504,10 +2487,10 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C47">
         <f>3.98 * 21</f>
@@ -2544,10 +2527,10 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C48">
         <f>2.74 * 21</f>
@@ -2584,10 +2567,10 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C49">
         <v>58.09</v>
@@ -2622,10 +2605,10 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C50">
         <f>3.25 * 21</f>
@@ -2662,10 +2645,10 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C51">
         <f>2.4 * 21</f>
@@ -2702,10 +2685,10 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C52" s="1">
         <v>67.489999999999995</v>
@@ -2735,16 +2718,16 @@
       <c r="K52" s="1">
         <v>0</v>
       </c>
-      <c r="L52" s="1" t="s">
-        <v>70</v>
+      <c r="L52" s="1">
+        <v>0.68</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C53">
         <v>50.98</v>
@@ -2773,16 +2756,16 @@
       <c r="K53" s="1">
         <v>0</v>
       </c>
-      <c r="L53" s="1" t="s">
-        <v>72</v>
+      <c r="L53" s="1">
+        <v>0.88</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C54" s="1">
         <v>17.829999999999998</v>
@@ -2817,10 +2800,10 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C55">
         <f>3.62 * 10</f>
@@ -2851,16 +2834,16 @@
       <c r="K55" s="1">
         <v>0</v>
       </c>
-      <c r="L55" s="1" t="s">
-        <v>75</v>
+      <c r="L55" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C56" s="1">
         <f>4.2*21</f>
@@ -2897,10 +2880,10 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C57">
         <v>37.86</v>
@@ -2935,10 +2918,10 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C58" s="1">
         <f>43.8 /16 *21</f>
@@ -2975,10 +2958,10 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C59">
         <f>76.74 / 25 *21</f>
@@ -3015,10 +2998,10 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C60" s="1">
         <v>25.19</v>
@@ -3048,15 +3031,15 @@
         <v>0</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C61" s="1">
         <f>2.6*21</f>
@@ -3092,10 +3075,10 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C62" s="1">
         <v>61.03</v>
@@ -3130,10 +3113,10 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C63" s="1">
         <v>46.6</v>
@@ -3168,10 +3151,10 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B64" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C64" s="1">
         <f>3.18*21</f>
@@ -3207,10 +3190,10 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C65" s="1">
         <f>2.24*21</f>
@@ -3246,10 +3229,10 @@
     </row>
     <row r="66" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C66" s="2">
         <v>37.1</v>
@@ -3284,10 +3267,10 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C67" s="1">
         <v>97.09</v>
@@ -3322,10 +3305,10 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C68">
         <f>3.65*21</f>
@@ -3361,10 +3344,10 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C69">
         <v>76.180000000000007</v>
@@ -3399,10 +3382,10 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C70">
         <v>21.6</v>
@@ -3437,10 +3420,10 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C71">
         <v>65.650000000000006</v>
@@ -3475,10 +3458,10 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C72">
         <v>70.53</v>
@@ -3512,11 +3495,11 @@
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A73" t="s">
-        <v>93</v>
+      <c r="A73" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C73">
         <v>52.89</v>
@@ -3545,14 +3528,16 @@
       <c r="K73">
         <v>0</v>
       </c>
-      <c r="L73" s="1"/>
+      <c r="L73" s="1">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="74" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C74">
         <f>27.5 / 10 * 21</f>
@@ -3583,13 +3568,16 @@
       <c r="K74">
         <v>0</v>
       </c>
+      <c r="L74">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C75">
         <v>63.28</v>
@@ -3618,13 +3606,22 @@
       <c r="K75">
         <v>0</v>
       </c>
+      <c r="L75">
+        <v>0.65800000000000003</v>
+      </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A76" t="s">
-        <v>96</v>
+      <c r="A76" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="C76">
+        <v>37.18</v>
+      </c>
+      <c r="D76">
+        <v>24.18</v>
       </c>
       <c r="E76">
         <v>1206</v>
@@ -3646,6 +3643,9 @@
       </c>
       <c r="K76">
         <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0.77900000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/data and code/effect_sizes_and_moderators.xlsx
+++ b/data and code/effect_sizes_and_moderators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qduan/Documents/GitHub/ptg-covid/data and code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02403020-0B3B-8044-B5B9-AA61B4DE2D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C348769A-59CB-E94F-A395-ED445D5516CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -307,10 +307,10 @@
     <t>Zurko et al. (2022)</t>
   </si>
   <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>population</t>
+    <t xml:space="preserve">Mean Age </t>
+  </si>
+  <si>
+    <t>Population</t>
   </si>
 </sst>
 </file>

--- a/data and code/effect_sizes_and_moderators.xlsx
+++ b/data and code/effect_sizes_and_moderators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qduan/Documents/GitHub/ptg-covid/data and code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C348769A-59CB-E94F-A395-ED445D5516CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871FBED1-AE48-BD40-9285-7AB0F0CAA344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="93">
   <si>
     <t xml:space="preserve">Source </t>
   </si>
@@ -310,7 +310,10 @@
     <t xml:space="preserve">Mean Age </t>
   </si>
   <si>
-    <t>Population</t>
+    <t>Groups</t>
+  </si>
+  <si>
+    <t>Countries</t>
   </si>
 </sst>
 </file>
@@ -690,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N76"/>
+  <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -711,7 +714,7 @@
     <col min="12" max="12" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -754,8 +757,11 @@
       <c r="N1" s="5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O1" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -794,7 +800,7 @@
         <v>0.40699999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -833,7 +839,7 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -872,7 +878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -911,7 +917,7 @@
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -949,7 +955,7 @@
         <v>0.95599999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -987,7 +993,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1025,7 +1031,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1064,7 +1070,7 @@
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1102,7 +1108,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1140,7 +1146,7 @@
         <v>0.70899999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1178,7 +1184,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1216,7 +1222,7 @@
         <v>0.58799999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1254,7 +1260,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1292,7 +1298,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>29</v>
       </c>

--- a/data and code/effect_sizes_and_moderators.xlsx
+++ b/data and code/effect_sizes_and_moderators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qduan/Documents/GitHub/ptg-covid/data and code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871FBED1-AE48-BD40-9285-7AB0F0CAA344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628AAFDA-CA99-B642-8AFF-99E258219F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="700" yWindow="-21080" windowWidth="34200" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="128">
   <si>
     <t xml:space="preserve">Source </t>
   </si>
@@ -314,13 +314,118 @@
   </si>
   <si>
     <t>Countries</t>
+  </si>
+  <si>
+    <t>Patients</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Pregant women</t>
+  </si>
+  <si>
+    <t>Patient relatives</t>
+  </si>
+  <si>
+    <t>Nurses</t>
+  </si>
+  <si>
+    <t>Front Line worker</t>
+  </si>
+  <si>
+    <t>Nursing Students</t>
+  </si>
+  <si>
+    <t>Medical Doctors</t>
+  </si>
+  <si>
+    <t>PHD Students</t>
+  </si>
+  <si>
+    <t>University Students</t>
+  </si>
+  <si>
+    <t>Health Care Workers</t>
+  </si>
+  <si>
+    <t>General students</t>
+  </si>
+  <si>
+    <t>Nurses/Healthcare workers</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel </t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy </t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>parents</t>
+  </si>
+  <si>
+    <t>greece</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>ultra-Orthodox Jewish</t>
+  </si>
+  <si>
+    <t>Parents</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -349,6 +454,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -370,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -379,6 +496,8 @@
       <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,1439 +814,1750 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="5" width="10.1640625" customWidth="1"/>
-    <col min="6" max="6" width="6.83203125" customWidth="1"/>
-    <col min="7" max="7" width="6.1640625" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="8" width="10.1640625" customWidth="1"/>
+    <col min="9" max="9" width="6.83203125" customWidth="1"/>
+    <col min="10" max="10" width="6.1640625" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="7.83203125" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>43.1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="C2">
+      <c r="F2">
         <v>22.257999999999999</v>
       </c>
-      <c r="D2">
+      <c r="G2">
         <v>5.0519999999999996</v>
       </c>
-      <c r="E2">
+      <c r="H2">
         <f>226+155</f>
         <v>381</v>
       </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1">
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
         <v>0.40699999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3">
+      <c r="B3">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
         <v>65.194999999999993</v>
       </c>
-      <c r="D3">
+      <c r="G3">
         <v>17.943999999999999</v>
       </c>
-      <c r="E3">
+      <c r="H3">
         <f>94+141+84+46</f>
         <v>365</v>
       </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1">
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
+      <c r="B4">
+        <v>28.16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
         <v>55.78</v>
       </c>
-      <c r="D4">
+      <c r="G4">
         <v>19.100000000000001</v>
       </c>
-      <c r="E4">
+      <c r="H4">
         <f>517+399</f>
         <v>916</v>
       </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5">
+      <c r="B5">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5">
         <f>ROUND(38.09*10.7/100+73.78*20.1/100+57.91*42.2/100+79.47*27/100,2)</f>
         <v>64.8</v>
       </c>
-      <c r="D5">
+      <c r="G5">
         <v>10.44</v>
       </c>
-      <c r="E5">
+      <c r="H5">
         <v>422</v>
       </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1">
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>33.1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="C6">
+      <c r="F6">
         <v>28</v>
       </c>
-      <c r="D6">
+      <c r="G6">
         <v>11.5</v>
       </c>
-      <c r="E6">
+      <c r="H6">
         <v>12596</v>
       </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1</v>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
         <v>0.95599999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7">
         <v>45.57</v>
       </c>
-      <c r="D7">
+      <c r="G7">
         <v>11.7</v>
       </c>
-      <c r="E7">
+      <c r="H7">
         <v>300</v>
       </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1</v>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
       </c>
       <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8">
+      <c r="B8">
+        <v>35.36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8">
         <v>47.73</v>
       </c>
-      <c r="D8">
+      <c r="G8">
         <v>24.63</v>
       </c>
-      <c r="E8">
+      <c r="H8">
         <v>352</v>
       </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8">
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
+      <c r="B9">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9">
         <v>53.13</v>
       </c>
-      <c r="D9">
+      <c r="G9">
         <v>17.22</v>
       </c>
-      <c r="E9">
+      <c r="H9">
         <f>235+92</f>
         <v>327</v>
       </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1">
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9">
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10">
+        <v>46.7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" t="s">
         <v>13</v>
       </c>
-      <c r="C10">
+      <c r="F10">
         <v>12.64</v>
       </c>
-      <c r="D10">
+      <c r="G10">
         <v>11.01</v>
       </c>
-      <c r="E10">
+      <c r="H10">
         <v>1424</v>
       </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1">
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10">
         <v>0.753</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11">
+      <c r="B11">
+        <v>35.409999999999997</v>
+      </c>
+      <c r="C11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11">
         <v>78.400000000000006</v>
       </c>
-      <c r="D11">
+      <c r="G11">
         <v>14</v>
       </c>
-      <c r="E11">
+      <c r="H11">
         <v>251</v>
       </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11">
         <v>0.70899999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12">
+      <c r="B12">
+        <v>32.340000000000003</v>
+      </c>
+      <c r="C12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12">
         <v>96.26</v>
       </c>
-      <c r="D12">
+      <c r="G12">
         <v>21.57</v>
       </c>
-      <c r="E12">
+      <c r="H12">
         <v>266</v>
       </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1">
-        <v>1</v>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
       </c>
       <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12">
         <v>0.91</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
+      <c r="B13">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13">
         <v>47</v>
       </c>
-      <c r="D13">
+      <c r="G13">
         <v>28.2</v>
       </c>
-      <c r="E13">
+      <c r="H13">
         <v>296</v>
       </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
-        <v>1</v>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
       </c>
       <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+      <c r="O13">
         <v>0.58799999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+    <row r="14" spans="1:15">
+      <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" t="s">
         <v>13</v>
       </c>
-      <c r="C14">
+      <c r="F14">
         <v>21.6</v>
       </c>
-      <c r="D14">
+      <c r="G14">
         <v>6.8</v>
       </c>
-      <c r="E14">
+      <c r="H14">
         <v>12686</v>
       </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
-        <v>1</v>
-      </c>
-      <c r="L14" s="1" t="s">
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15">
+        <v>45.16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" t="s">
         <v>13</v>
       </c>
-      <c r="C15">
+      <c r="F15">
         <v>36.51</v>
       </c>
-      <c r="D15">
+      <c r="G15">
         <v>7.6</v>
       </c>
-      <c r="E15">
+      <c r="H15">
         <v>1951</v>
       </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1</v>
-      </c>
-      <c r="K15" s="1">
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15">
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>29</v>
       </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16">
+      <c r="B16">
+        <v>76.3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16">
         <v>47.95</v>
       </c>
-      <c r="D16">
+      <c r="G16">
         <v>24.48</v>
       </c>
-      <c r="E16">
+      <c r="H16">
         <v>176</v>
       </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0</v>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
       </c>
       <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16">
         <v>0.57899999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>30</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" t="s">
         <v>13</v>
       </c>
-      <c r="C17">
+      <c r="F17">
         <v>21.9</v>
       </c>
-      <c r="D17">
+      <c r="G17">
         <v>9.6999999999999993</v>
       </c>
-      <c r="E17">
+      <c r="H17">
         <v>1510</v>
       </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1" t="s">
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>31</v>
       </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18">
+      <c r="B18">
+        <v>21.2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18">
         <v>63.49</v>
       </c>
-      <c r="D18">
+      <c r="G18">
         <v>20.64</v>
       </c>
-      <c r="E18">
+      <c r="H18">
         <v>292</v>
       </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1">
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18">
         <v>0.78500000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>32</v>
       </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19">
         <v>67.17</v>
       </c>
-      <c r="D19">
+      <c r="G19">
         <v>14.79</v>
       </c>
-      <c r="E19">
+      <c r="H19">
         <v>1790</v>
       </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1">
-        <v>1</v>
-      </c>
-      <c r="K19" s="1">
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1</v>
+      </c>
+      <c r="O19">
         <v>0.99399999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>33</v>
       </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20">
+      <c r="B20">
+        <v>45.3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20">
         <v>58.34</v>
       </c>
-      <c r="D20">
+      <c r="G20">
         <v>26.76</v>
       </c>
-      <c r="E20">
+      <c r="H20">
         <v>442</v>
       </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1">
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
         <v>1</v>
       </c>
       <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
+      <c r="O20">
         <v>0.52300000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>34</v>
       </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21">
+      <c r="B21">
+        <v>32.46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21">
         <v>71.75</v>
       </c>
-      <c r="D21">
+      <c r="G21">
         <v>18.53</v>
       </c>
-      <c r="E21">
+      <c r="H21">
         <v>1512</v>
       </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0</v>
-      </c>
-      <c r="K21" s="1">
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21">
         <v>0.93799999999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>35</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" t="s">
         <v>13</v>
       </c>
-      <c r="C22">
+      <c r="F22">
         <v>30.33</v>
       </c>
-      <c r="D22">
+      <c r="G22">
         <v>11.65</v>
       </c>
-      <c r="E22">
+      <c r="H22">
         <v>252</v>
       </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22" s="1">
-        <v>1</v>
-      </c>
-      <c r="K22" s="1">
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22">
         <v>0.71699999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>36</v>
       </c>
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23">
+      <c r="B23">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23">
         <v>64.81</v>
       </c>
-      <c r="D23">
+      <c r="G23">
         <v>20.27</v>
       </c>
-      <c r="E23">
+      <c r="H23">
         <v>166</v>
       </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23" s="1">
-        <v>1</v>
-      </c>
-      <c r="K23" s="1">
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23">
         <v>0.6</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="5">
+        <v>27</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C24">
+      <c r="F24">
         <v>46.81</v>
       </c>
-      <c r="D24">
+      <c r="G24">
         <v>11.93</v>
       </c>
-      <c r="E24">
+      <c r="H24">
         <v>290</v>
       </c>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
       <c r="I24" s="1">
         <v>1</v>
       </c>
       <c r="J24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1</v>
+      </c>
+      <c r="O24" s="1">
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>38</v>
       </c>
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25">
+      <c r="B25">
+        <v>22.42</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25">
         <v>63.36</v>
       </c>
-      <c r="D25">
+      <c r="G25">
         <v>20.91</v>
       </c>
-      <c r="E25">
+      <c r="H25">
         <v>100</v>
       </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25" s="1">
-        <v>1</v>
-      </c>
-      <c r="K25" s="1">
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0.38400000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26">
+      <c r="B26">
+        <v>52.81</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26">
         <v>31.82</v>
       </c>
-      <c r="D26">
+      <c r="G26">
         <v>23.1</v>
       </c>
-      <c r="E26">
+      <c r="H26">
         <v>733</v>
       </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
+      <c r="I26" s="1">
         <v>1</v>
       </c>
       <c r="J26" s="1">
-        <v>0</v>
-      </c>
-      <c r="K26" s="1">
-        <v>0</v>
-      </c>
-      <c r="L26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
         <v>0.622</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>40</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27">
+        <v>46.68</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" t="s">
         <v>13</v>
       </c>
-      <c r="C27">
+      <c r="F27">
         <v>20.350000000000001</v>
       </c>
-      <c r="D27">
+      <c r="G27">
         <v>10.92</v>
       </c>
-      <c r="E27">
+      <c r="H27">
         <v>854</v>
       </c>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1">
-        <v>0</v>
-      </c>
-      <c r="K27" s="1">
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27">
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
+    <row r="28" spans="1:15">
+      <c r="A28" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28">
+      <c r="B28" s="5">
+        <v>25</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28">
         <v>51.44</v>
       </c>
-      <c r="D28">
+      <c r="G28">
         <v>12.5</v>
       </c>
-      <c r="E28">
+      <c r="H28">
         <v>785</v>
       </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0</v>
-      </c>
-      <c r="K28" s="1">
-        <v>1</v>
-      </c>
-      <c r="L28" s="1">
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>1</v>
+      </c>
+      <c r="O28" s="1">
         <v>0.59599999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>42</v>
       </c>
-      <c r="B29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29">
+      <c r="B29">
+        <v>22.37</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29">
         <v>62.83</v>
       </c>
-      <c r="D29">
+      <c r="G29">
         <v>23.19</v>
       </c>
-      <c r="E29">
+      <c r="H29">
         <v>115</v>
       </c>
-      <c r="F29" s="1">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29" s="1">
-        <v>1</v>
-      </c>
-      <c r="K29" s="1">
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1">
+        <v>1</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29">
         <v>0.57399999999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>43</v>
       </c>
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30">
+      <c r="B30">
+        <v>41.6</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30">
         <f>ROUND((53.97*253+45.56*176)/(253+176),2)</f>
         <v>50.52</v>
       </c>
-      <c r="D30">
+      <c r="G30">
         <v>20</v>
       </c>
-      <c r="E30">
+      <c r="H30">
         <f>253+176</f>
         <v>429</v>
       </c>
-      <c r="F30" s="1">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30" s="1">
-        <v>0</v>
-      </c>
-      <c r="K30" s="1">
-        <v>0</v>
-      </c>
-      <c r="L30" s="1">
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
         <v>0.78300000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>44</v>
       </c>
-      <c r="B31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31">
+      <c r="B31">
+        <v>34.1</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31">
         <v>75.47</v>
       </c>
-      <c r="D31">
+      <c r="G31">
         <v>21.8</v>
       </c>
-      <c r="E31">
+      <c r="H31">
         <v>407</v>
       </c>
-      <c r="F31" s="1">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31" s="1">
-        <v>0</v>
-      </c>
-      <c r="K31" s="1">
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
+      <c r="O31">
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32">
+      <c r="B32">
+        <v>30.38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32">
         <v>70.91</v>
       </c>
-      <c r="D32">
+      <c r="G32">
         <v>22.54</v>
       </c>
-      <c r="E32">
+      <c r="H32">
         <v>184</v>
       </c>
-      <c r="F32" s="1">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32" s="1">
-        <v>1</v>
-      </c>
-      <c r="K32" s="1">
-        <v>1</v>
-      </c>
-      <c r="L32" s="1">
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>1</v>
+      </c>
+      <c r="N32" s="1">
+        <v>1</v>
+      </c>
+      <c r="O32" s="1">
         <v>0.77</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33">
+      <c r="B33">
+        <v>32.14</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33">
         <v>69.95</v>
       </c>
-      <c r="D33">
+      <c r="G33">
         <v>15.73</v>
       </c>
-      <c r="E33">
+      <c r="H33">
         <v>263</v>
       </c>
-      <c r="F33" s="1">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33" s="1">
-        <v>0</v>
-      </c>
-      <c r="K33" s="1">
-        <v>0</v>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
       </c>
       <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
+      <c r="O33">
         <v>0.56699999999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34">
+        <v>34</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34" t="s">
         <v>13</v>
       </c>
-      <c r="C34">
+      <c r="F34">
         <v>40</v>
       </c>
-      <c r="D34">
+      <c r="G34">
         <f>1.35 * 16</f>
         <v>21.6</v>
       </c>
-      <c r="E34">
+      <c r="H34">
         <v>152</v>
       </c>
-      <c r="F34" s="1">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34" s="1">
-        <v>0</v>
-      </c>
-      <c r="K34" s="1">
-        <v>0</v>
-      </c>
-      <c r="L34" s="1">
+      <c r="I34" s="1">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
         <v>0.35499999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35">
+      <c r="B35">
+        <v>31.04</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35">
         <f>73.92 /25 * 21</f>
         <v>62.092799999999997</v>
       </c>
-      <c r="D35">
+      <c r="G35">
         <f>SQRT(22.1^2 *(21/25)^2 )</f>
         <v>18.564</v>
       </c>
-      <c r="E35">
+      <c r="H35">
         <v>692</v>
       </c>
-      <c r="F35" s="1">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35" s="1">
-        <v>0</v>
-      </c>
-      <c r="K35" s="1">
-        <v>0</v>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
       </c>
       <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35">
         <v>0.99099999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:15">
       <c r="A36" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36">
+      <c r="B36">
+        <v>51.44</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36">
         <v>43.05</v>
       </c>
-      <c r="D36">
+      <c r="G36">
         <v>26.59</v>
       </c>
-      <c r="E36">
+      <c r="H36">
         <v>118</v>
       </c>
-      <c r="F36" s="1">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36" s="1">
-        <v>0</v>
-      </c>
-      <c r="K36" s="1">
-        <v>0</v>
-      </c>
-      <c r="L36" s="1">
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
         <v>0.73699999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="1">
+      <c r="B37" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="1">
         <v>34.51</v>
       </c>
-      <c r="D37" s="1">
+      <c r="G37" s="1">
         <v>25.46</v>
       </c>
-      <c r="E37">
+      <c r="H37">
         <v>35</v>
       </c>
-      <c r="F37" s="1">
-        <v>1</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0</v>
-      </c>
       <c r="I37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" s="1">
         <v>0</v>
@@ -2136,153 +2566,189 @@
         <v>0</v>
       </c>
       <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>1</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38">
+      <c r="B38">
+        <v>47.37</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38">
         <f>3.01 * 21</f>
         <v>63.209999999999994</v>
       </c>
-      <c r="D38">
+      <c r="G38">
         <v>17</v>
       </c>
-      <c r="E38">
+      <c r="H38">
         <v>183</v>
       </c>
-      <c r="F38" s="1">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38" s="1">
-        <v>0</v>
-      </c>
-      <c r="K38" s="1">
-        <v>0</v>
-      </c>
-      <c r="L38" s="1">
+      <c r="I38" s="1">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
         <v>0.65</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39">
+        <v>37.619999999999997</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="1">
+      <c r="F39" s="1">
         <f>2.3 * 10</f>
         <v>23</v>
       </c>
-      <c r="D39" s="1">
+      <c r="G39" s="1">
         <f>SQRT(0.51^2 * 10^2)</f>
         <v>5.0999999999999996</v>
       </c>
-      <c r="E39">
+      <c r="H39">
         <v>436</v>
       </c>
-      <c r="F39" s="1">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39" s="1">
-        <v>1</v>
-      </c>
-      <c r="K39" s="1">
-        <v>0</v>
-      </c>
-      <c r="L39" s="1">
+      <c r="I39" s="1">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>1</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
         <v>0.69950000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40">
+        <v>44.77</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40" t="s">
         <v>13</v>
       </c>
-      <c r="C40">
+      <c r="F40">
         <f>3.62 *10</f>
         <v>36.200000000000003</v>
       </c>
-      <c r="D40">
+      <c r="G40">
         <f>SQRT(1.22^2 * 100)</f>
         <v>12.2</v>
       </c>
-      <c r="E40">
+      <c r="H40">
         <v>295</v>
       </c>
-      <c r="F40" s="1">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40" s="1">
-        <v>0</v>
-      </c>
-      <c r="K40" s="1">
-        <v>0</v>
-      </c>
-      <c r="L40" s="1">
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="1">
+      <c r="B41">
+        <v>41.8</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="1">
         <v>62.24</v>
       </c>
-      <c r="D41" s="1">
+      <c r="G41" s="1">
         <v>2.1800000000000002</v>
       </c>
-      <c r="E41">
+      <c r="H41">
         <v>429</v>
       </c>
-      <c r="F41" s="1">
-        <v>0</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0</v>
-      </c>
-      <c r="H41" s="1">
-        <v>1</v>
-      </c>
       <c r="I41" s="1">
         <v>0</v>
       </c>
@@ -2290,431 +2756,476 @@
         <v>0</v>
       </c>
       <c r="K41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
         <v>0.47</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42">
+      <c r="B42">
+        <v>41.8</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42">
         <v>47.4</v>
       </c>
-      <c r="D42">
+      <c r="G42">
         <v>27</v>
       </c>
-      <c r="E42">
+      <c r="H42">
         <v>213</v>
       </c>
-      <c r="F42" s="1">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42" s="1">
-        <v>0</v>
-      </c>
-      <c r="K42" s="1">
-        <v>0</v>
-      </c>
-      <c r="L42" s="1">
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
         <v>0.874</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="1">
+      <c r="B43">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="1">
         <f>2.169 * 21</f>
         <v>45.548999999999999</v>
       </c>
-      <c r="D43" s="1">
+      <c r="G43" s="1">
         <f>SQRT( 1.299^2 * 21^2)</f>
         <v>27.279</v>
       </c>
-      <c r="E43">
+      <c r="H43">
         <v>369</v>
       </c>
-      <c r="F43" s="1">
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43" s="1">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43" s="1">
-        <v>0</v>
+      <c r="I43" s="1">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
       </c>
       <c r="K43" s="1">
         <v>0</v>
       </c>
-      <c r="L43" s="1">
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0</v>
+      </c>
+      <c r="O43" s="1">
         <v>0.7</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:15">
       <c r="A44" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B44" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="1">
+      <c r="B44" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="1">
         <f>45.4545</f>
         <v>45.454500000000003</v>
       </c>
-      <c r="D44" s="1">
+      <c r="G44" s="1">
         <v>25.452000000000002</v>
       </c>
-      <c r="E44">
+      <c r="H44">
         <v>575</v>
       </c>
-      <c r="F44" s="1">
-        <v>1</v>
-      </c>
-      <c r="G44" s="1">
-        <v>1</v>
-      </c>
-      <c r="H44" s="1">
-        <v>0</v>
-      </c>
       <c r="I44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="1">
         <v>0</v>
       </c>
       <c r="L44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1">
+        <v>0</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0</v>
+      </c>
+      <c r="O44" s="1">
         <v>0.7</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:15">
       <c r="A45" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45">
+      <c r="B45" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45">
         <v>37.085999999999999</v>
       </c>
-      <c r="D45">
+      <c r="G45">
         <v>58.860349999999997</v>
       </c>
-      <c r="E45">
+      <c r="H45">
         <v>669</v>
       </c>
-      <c r="F45" s="1">
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45" s="1">
-        <v>1</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45" s="1">
+      <c r="I45" s="1">
+        <v>1</v>
+      </c>
+      <c r="J45">
         <v>0</v>
       </c>
       <c r="K45" s="1">
-        <v>0</v>
-      </c>
-      <c r="L45" s="1">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0</v>
+      </c>
+      <c r="N45" s="1">
+        <v>0</v>
+      </c>
+      <c r="O45" s="1">
         <v>0.60699999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:15">
       <c r="A46" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46">
+        <v>38.090000000000003</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" t="s">
         <v>13</v>
       </c>
-      <c r="C46">
+      <c r="F46">
         <f>4.11 * 10</f>
         <v>41.1</v>
       </c>
-      <c r="D46">
+      <c r="G46">
         <f>SQRT(0.84^2 * 10^2)</f>
         <v>8.3999999999999986</v>
       </c>
-      <c r="E46">
+      <c r="H46">
         <v>172</v>
       </c>
-      <c r="F46" s="1">
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46" s="1">
-        <v>1</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46" s="1">
+      <c r="I46" s="1">
+        <v>1</v>
+      </c>
+      <c r="J46">
         <v>0</v>
       </c>
       <c r="K46" s="1">
-        <v>0</v>
-      </c>
-      <c r="L46" s="1">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0</v>
+      </c>
+      <c r="O46" s="1">
         <v>0.97750000000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:15">
       <c r="A47" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47">
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47">
         <f>3.98 * 21</f>
         <v>83.58</v>
       </c>
-      <c r="D47">
+      <c r="G47">
         <f>SQRT(0.73^2 * 21^2)</f>
         <v>15.33</v>
       </c>
-      <c r="E47">
+      <c r="H47">
         <v>760</v>
       </c>
-      <c r="F47" s="1">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47" s="1">
-        <v>1</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47" s="1">
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47">
         <v>0</v>
       </c>
       <c r="K47" s="1">
-        <v>0</v>
-      </c>
-      <c r="L47" s="1">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47" s="1">
+        <v>0</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0</v>
+      </c>
+      <c r="O47" s="1">
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:15">
       <c r="A48" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B48" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48">
+      <c r="E48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48">
         <f>2.74 * 21</f>
         <v>57.540000000000006</v>
       </c>
-      <c r="D48">
+      <c r="G48">
         <f>SQRT(1.21^2 * 21^2)</f>
         <v>25.41</v>
       </c>
-      <c r="E48">
+      <c r="H48">
         <v>120</v>
       </c>
-      <c r="F48" s="1">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48" s="1">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48" s="1">
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48">
         <v>0</v>
       </c>
       <c r="K48" s="1">
         <v>0</v>
       </c>
-      <c r="L48" s="1">
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48" s="1">
+        <v>0</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0</v>
+      </c>
+      <c r="O48" s="1">
         <v>0.83699999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:15">
       <c r="A49" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B49" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49">
+      <c r="E49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49">
         <v>58.09</v>
       </c>
-      <c r="D49">
+      <c r="G49">
         <v>9.69</v>
       </c>
-      <c r="E49">
+      <c r="H49">
         <v>253</v>
       </c>
-      <c r="F49" s="1">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49" s="1">
-        <v>1</v>
-      </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="J49" s="1">
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49">
         <v>0</v>
       </c>
       <c r="K49" s="1">
-        <v>0</v>
-      </c>
-      <c r="L49" s="1">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49" s="1">
+        <v>0</v>
+      </c>
+      <c r="N49" s="1">
+        <v>0</v>
+      </c>
+      <c r="O49" s="1">
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B50" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50">
+      <c r="E50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50">
         <f>3.25 * 21</f>
         <v>68.25</v>
       </c>
-      <c r="D50">
+      <c r="G50">
         <f>SQRT(2.27^2 * 21^2)</f>
         <v>47.67</v>
       </c>
-      <c r="E50">
+      <c r="H50">
         <v>4934</v>
       </c>
-      <c r="F50" s="1">
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50" s="1">
-        <v>1</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50" s="1">
+      <c r="I50" s="1">
+        <v>1</v>
+      </c>
+      <c r="J50">
         <v>0</v>
       </c>
       <c r="K50" s="1">
-        <v>0</v>
-      </c>
-      <c r="L50" s="1">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50" s="1">
+        <v>0</v>
+      </c>
+      <c r="N50" s="1">
+        <v>0</v>
+      </c>
+      <c r="O50" s="1">
         <v>0.628</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:15">
       <c r="A51" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B51" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51">
+      <c r="E51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51">
         <f>2.4 * 21</f>
         <v>50.4</v>
       </c>
-      <c r="D51" s="1">
+      <c r="G51" s="1">
         <f>SQRT(1.2^2 * 21^2)</f>
         <v>25.2</v>
       </c>
-      <c r="E51">
+      <c r="H51">
         <v>163</v>
       </c>
-      <c r="F51" s="1">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51" s="1">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51" s="1">
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
+      <c r="J51">
         <v>0</v>
       </c>
       <c r="K51" s="1">
         <v>0</v>
       </c>
-      <c r="L51" s="1">
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51" s="1">
+        <v>0</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0</v>
+      </c>
+      <c r="O51" s="1">
         <v>0.55500000000000005</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B52" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" s="1">
+      <c r="E52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="1">
         <v>67.489999999999995</v>
       </c>
-      <c r="D52" s="1">
+      <c r="G52" s="1">
         <f>2.73</f>
         <v>2.73</v>
       </c>
-      <c r="E52">
+      <c r="H52">
         <v>109</v>
       </c>
-      <c r="F52" s="1">
-        <v>0</v>
-      </c>
-      <c r="G52" s="1">
-        <v>0</v>
-      </c>
-      <c r="H52" s="1">
-        <v>1</v>
-      </c>
       <c r="I52" s="1">
         <v>0</v>
       </c>
@@ -2722,157 +3233,157 @@
         <v>0</v>
       </c>
       <c r="K52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="1">
+        <v>0</v>
+      </c>
+      <c r="M52" s="1">
+        <v>0</v>
+      </c>
+      <c r="N52" s="1">
+        <v>0</v>
+      </c>
+      <c r="O52" s="1">
         <v>0.68</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B53" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53">
+      <c r="E53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53">
         <v>50.98</v>
       </c>
-      <c r="D53">
+      <c r="G53">
         <v>25.3</v>
       </c>
-      <c r="E53">
+      <c r="H53">
         <v>175</v>
       </c>
-      <c r="F53" s="1">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53" s="1">
-        <v>1</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53" s="1">
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53">
         <v>0</v>
       </c>
       <c r="K53" s="1">
-        <v>0</v>
-      </c>
-      <c r="L53" s="1">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53" s="1">
+        <v>0</v>
+      </c>
+      <c r="N53" s="1">
+        <v>0</v>
+      </c>
+      <c r="O53" s="1">
         <v>0.88</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B54" t="s">
+      <c r="E54" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="1">
+      <c r="F54" s="1">
         <v>17.829999999999998</v>
       </c>
-      <c r="D54" s="1">
+      <c r="G54" s="1">
         <v>10.3</v>
       </c>
-      <c r="E54" s="1">
+      <c r="H54" s="1">
         <v>364</v>
       </c>
-      <c r="F54" s="1">
-        <v>1</v>
-      </c>
-      <c r="G54" s="1">
-        <v>1</v>
-      </c>
-      <c r="H54" s="1">
-        <v>0</v>
-      </c>
       <c r="I54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" s="1">
         <v>0</v>
       </c>
       <c r="L54" s="1">
+        <v>0</v>
+      </c>
+      <c r="M54" s="1">
+        <v>0</v>
+      </c>
+      <c r="N54" s="1">
+        <v>0</v>
+      </c>
+      <c r="O54" s="1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:15">
       <c r="A55" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B55" t="s">
+      <c r="E55" t="s">
         <v>13</v>
       </c>
-      <c r="C55">
+      <c r="F55">
         <f>3.62 * 10</f>
         <v>36.200000000000003</v>
       </c>
-      <c r="D55">
+      <c r="G55">
         <f>SQRT(0.9^2 * 10^2)</f>
         <v>9</v>
       </c>
-      <c r="E55">
+      <c r="H55">
         <v>441</v>
       </c>
-      <c r="F55" s="1">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55" s="1">
-        <v>1</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55" s="1">
-        <v>1</v>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
       </c>
       <c r="K55" s="1">
-        <v>0</v>
-      </c>
-      <c r="L55" s="1">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55" s="1">
+        <v>1</v>
+      </c>
+      <c r="N55" s="1">
+        <v>0</v>
+      </c>
+      <c r="O55" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:15">
       <c r="A56" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B56" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" s="1">
+      <c r="E56" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="1">
         <f>4.2*21</f>
         <v>88.2</v>
       </c>
-      <c r="D56">
+      <c r="G56">
         <f>SQRT(0.99^2* 21^2)</f>
         <v>20.79</v>
       </c>
-      <c r="E56">
+      <c r="H56">
         <v>1711</v>
       </c>
-      <c r="F56" s="1">
-        <v>0</v>
-      </c>
-      <c r="G56" s="1">
-        <v>0</v>
-      </c>
-      <c r="H56" s="1">
-        <v>1</v>
-      </c>
       <c r="I56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" s="1">
         <v>0</v>
@@ -2881,306 +3392,306 @@
         <v>1</v>
       </c>
       <c r="L56" s="1">
+        <v>1</v>
+      </c>
+      <c r="M56" s="1">
+        <v>0</v>
+      </c>
+      <c r="N56" s="1">
+        <v>1</v>
+      </c>
+      <c r="O56" s="1">
         <v>0.71399999999999997</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:15">
       <c r="A57" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B57" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57">
+      <c r="E57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57">
         <v>37.86</v>
       </c>
-      <c r="D57">
+      <c r="G57">
         <v>26.28</v>
       </c>
-      <c r="E57">
+      <c r="H57">
         <v>66</v>
       </c>
-      <c r="F57" s="1">
-        <v>1</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57" s="1">
-        <v>1</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57" s="1">
+      <c r="I57" s="1">
+        <v>1</v>
+      </c>
+      <c r="J57">
         <v>0</v>
       </c>
       <c r="K57" s="1">
-        <v>0</v>
-      </c>
-      <c r="L57" s="1">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57" s="1">
+        <v>0</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0</v>
+      </c>
+      <c r="O57" s="1">
         <v>0.38800000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:15">
       <c r="A58" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B58" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" s="1">
+      <c r="E58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="1">
         <f>43.8 /16 *21</f>
         <v>57.487499999999997</v>
       </c>
-      <c r="D58">
+      <c r="G58">
         <f>SQRT(14.65^2 * (21/16)^2)</f>
         <v>19.228125000000002</v>
       </c>
-      <c r="E58">
+      <c r="H58">
         <v>100</v>
       </c>
-      <c r="F58" s="1">
-        <v>0</v>
-      </c>
-      <c r="G58" s="1">
-        <v>0</v>
-      </c>
-      <c r="H58" s="1">
-        <v>0</v>
-      </c>
       <c r="I58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" s="1">
+        <v>1</v>
+      </c>
+      <c r="M58" s="1">
+        <v>1</v>
+      </c>
+      <c r="N58" s="1">
+        <v>1</v>
+      </c>
+      <c r="O58" s="1">
         <v>0.63600000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B59" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59">
+      <c r="E59" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59">
         <f>76.74 / 25 *21</f>
         <v>64.461600000000004</v>
       </c>
-      <c r="D59">
+      <c r="G59">
         <f>SQRT(27.13^2 * (21/25)^2)</f>
         <v>22.789199999999997</v>
       </c>
-      <c r="E59">
+      <c r="H59">
         <v>589</v>
       </c>
-      <c r="F59" s="1">
-        <v>1</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59" s="1">
-        <v>1</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59" s="1">
+      <c r="I59" s="1">
+        <v>1</v>
+      </c>
+      <c r="J59">
         <v>0</v>
       </c>
       <c r="K59" s="1">
-        <v>0</v>
-      </c>
-      <c r="L59" s="1">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59" s="1">
+        <v>0</v>
+      </c>
+      <c r="N59" s="1">
+        <v>0</v>
+      </c>
+      <c r="O59" s="1">
         <v>0.90800000000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:15">
       <c r="A60" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B60" t="s">
+      <c r="E60" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="1">
+      <c r="F60" s="1">
         <v>25.19</v>
       </c>
-      <c r="D60">
+      <c r="G60">
         <v>9.48</v>
       </c>
-      <c r="E60">
+      <c r="H60">
         <v>2267</v>
       </c>
-      <c r="F60" s="1">
-        <v>1</v>
-      </c>
-      <c r="G60" s="1">
-        <v>1</v>
-      </c>
-      <c r="H60" s="1">
-        <v>1</v>
-      </c>
       <c r="I60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" s="1">
-        <v>0</v>
-      </c>
-      <c r="L60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L60" s="1">
+        <v>0</v>
+      </c>
+      <c r="M60" s="1">
+        <v>0</v>
+      </c>
+      <c r="N60" s="1">
+        <v>0</v>
+      </c>
+      <c r="O60" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:15">
       <c r="A61" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B61" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="1">
+      <c r="E61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="1">
         <f>2.6*21</f>
         <v>54.6</v>
       </c>
-      <c r="D61">
+      <c r="G61">
         <v>0.52</v>
       </c>
-      <c r="E61">
+      <c r="H61">
         <v>700</v>
       </c>
-      <c r="F61" s="1">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61" s="1">
-        <v>1</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61" s="1">
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
+      <c r="J61">
         <v>0</v>
       </c>
       <c r="K61" s="1">
-        <v>0</v>
-      </c>
-      <c r="L61" s="1">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61" s="1">
+        <v>0</v>
+      </c>
+      <c r="N61" s="1">
+        <v>0</v>
+      </c>
+      <c r="O61" s="1">
         <v>0.54700000000000004</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:15">
       <c r="A62" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B62" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62" s="1">
+      <c r="E62" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" s="1">
         <v>61.03</v>
       </c>
-      <c r="D62">
+      <c r="G62">
         <v>21.28</v>
       </c>
-      <c r="E62">
+      <c r="H62">
         <v>144</v>
       </c>
-      <c r="F62" s="1">
-        <v>1</v>
-      </c>
-      <c r="G62" s="1">
-        <v>1</v>
-      </c>
-      <c r="H62" s="1">
-        <v>1</v>
-      </c>
       <c r="I62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" s="1">
+        <v>0</v>
+      </c>
+      <c r="M62" s="1">
+        <v>0</v>
+      </c>
+      <c r="N62" s="1">
+        <v>0</v>
+      </c>
+      <c r="O62" s="1">
         <v>0.436</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:15">
       <c r="A63" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B63" t="s">
-        <v>15</v>
-      </c>
-      <c r="C63" s="1">
+      <c r="E63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="1">
         <v>46.6</v>
       </c>
-      <c r="D63">
+      <c r="G63">
         <v>24.61</v>
       </c>
-      <c r="E63">
+      <c r="H63">
         <v>673</v>
       </c>
-      <c r="F63" s="1">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63" s="1">
-        <v>1</v>
-      </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
-      <c r="J63" s="1">
+      <c r="I63" s="1">
+        <v>0</v>
+      </c>
+      <c r="J63">
         <v>0</v>
       </c>
       <c r="K63" s="1">
         <v>1</v>
       </c>
-      <c r="L63" s="1">
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63" s="1">
+        <v>0</v>
+      </c>
+      <c r="N63" s="1">
+        <v>1</v>
+      </c>
+      <c r="O63" s="1">
         <v>0.72199999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:15">
       <c r="A64" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B64" t="s">
-        <v>15</v>
-      </c>
-      <c r="C64" s="1">
+      <c r="E64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" s="1">
         <f>3.18*21</f>
         <v>66.78</v>
       </c>
-      <c r="D64">
+      <c r="G64">
         <v>1.06</v>
       </c>
-      <c r="E64">
+      <c r="H64">
         <v>200</v>
       </c>
-      <c r="F64" s="1">
-        <v>0</v>
-      </c>
-      <c r="G64" s="1">
-        <v>0</v>
-      </c>
-      <c r="H64" s="1">
-        <v>1</v>
-      </c>
       <c r="I64" s="1">
         <v>0</v>
       </c>
@@ -3188,155 +3699,155 @@
         <v>0</v>
       </c>
       <c r="K64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" s="1">
+        <v>0</v>
+      </c>
+      <c r="M64" s="1">
+        <v>0</v>
+      </c>
+      <c r="N64" s="1">
+        <v>0</v>
+      </c>
+      <c r="O64" s="1">
         <v>0.747</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:15">
       <c r="A65" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B65" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65" s="1">
+      <c r="E65" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" s="1">
         <f>2.24*21</f>
         <v>47.040000000000006</v>
       </c>
-      <c r="D65">
+      <c r="G65">
         <v>1.24</v>
       </c>
-      <c r="E65">
+      <c r="H65">
         <v>179</v>
       </c>
-      <c r="F65" s="1">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65" s="1">
-        <v>1</v>
-      </c>
-      <c r="I65">
-        <v>1</v>
-      </c>
-      <c r="J65" s="1">
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
+      <c r="J65">
         <v>0</v>
       </c>
       <c r="K65" s="1">
-        <v>0</v>
-      </c>
-      <c r="L65" s="1">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65" s="1">
+        <v>0</v>
+      </c>
+      <c r="N65" s="1">
+        <v>0</v>
+      </c>
+      <c r="O65" s="1">
         <v>0.83</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" ht="14">
       <c r="A66" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C66" s="2">
+      <c r="E66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" s="2">
         <v>37.1</v>
       </c>
-      <c r="D66" s="1">
+      <c r="G66" s="1">
         <v>24.7</v>
       </c>
-      <c r="E66">
+      <c r="H66">
         <v>202</v>
       </c>
-      <c r="F66" s="1">
-        <v>0</v>
-      </c>
-      <c r="G66" s="1">
-        <v>0</v>
-      </c>
-      <c r="H66" s="1">
-        <v>1</v>
-      </c>
       <c r="I66" s="1">
         <v>0</v>
       </c>
       <c r="J66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" s="1">
         <v>1</v>
       </c>
       <c r="L66" s="1">
+        <v>0</v>
+      </c>
+      <c r="M66" s="1">
+        <v>1</v>
+      </c>
+      <c r="N66" s="1">
+        <v>1</v>
+      </c>
+      <c r="O66" s="1">
         <v>0.44400000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:15">
       <c r="A67" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B67" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67" s="1">
+      <c r="E67" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" s="1">
         <v>97.09</v>
       </c>
-      <c r="D67" s="1">
+      <c r="G67" s="1">
         <v>18.27</v>
       </c>
-      <c r="E67" s="3">
+      <c r="H67" s="3">
         <v>2750</v>
       </c>
-      <c r="F67" s="1">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67" s="1">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67" s="1">
-        <v>1</v>
+      <c r="I67" s="1">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
       </c>
       <c r="K67" s="1">
         <v>0</v>
       </c>
-      <c r="L67" s="1">
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67" s="1">
+        <v>1</v>
+      </c>
+      <c r="N67" s="1">
+        <v>0</v>
+      </c>
+      <c r="O67" s="1">
         <v>0.76700000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:15">
       <c r="A68" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B68" t="s">
-        <v>15</v>
-      </c>
-      <c r="C68">
+      <c r="E68" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68">
         <f>3.65*21</f>
         <v>76.649999999999991</v>
       </c>
-      <c r="D68">
+      <c r="G68">
         <v>0.77</v>
       </c>
-      <c r="E68">
+      <c r="H68">
         <v>338</v>
       </c>
-      <c r="F68" s="1">
-        <v>0</v>
-      </c>
-      <c r="G68" s="1">
-        <v>0</v>
-      </c>
-      <c r="H68" s="1">
-        <v>1</v>
-      </c>
       <c r="I68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" s="1">
         <v>0</v>
@@ -3345,302 +3856,302 @@
         <v>1</v>
       </c>
       <c r="L68" s="1">
+        <v>1</v>
+      </c>
+      <c r="M68" s="1">
+        <v>0</v>
+      </c>
+      <c r="N68" s="1">
+        <v>1</v>
+      </c>
+      <c r="O68" s="1">
         <v>0.95299999999999996</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:15">
       <c r="A69" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B69" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69">
+      <c r="E69" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69">
         <v>76.180000000000007</v>
       </c>
-      <c r="D69">
+      <c r="G69">
         <v>16.004000000000001</v>
       </c>
-      <c r="E69">
+      <c r="H69">
         <v>233</v>
       </c>
-      <c r="F69" s="1">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69" s="1">
-        <v>1</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69" s="1">
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
+      <c r="J69">
         <v>0</v>
       </c>
       <c r="K69" s="1">
-        <v>0</v>
-      </c>
-      <c r="L69" s="1">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69" s="1">
+        <v>0</v>
+      </c>
+      <c r="N69" s="1">
+        <v>0</v>
+      </c>
+      <c r="O69" s="1">
         <v>0.49399999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:15">
       <c r="A70" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B70" t="s">
+      <c r="E70" t="s">
         <v>13</v>
       </c>
-      <c r="C70">
+      <c r="F70">
         <v>21.6</v>
       </c>
-      <c r="D70">
+      <c r="G70">
         <v>11.72</v>
       </c>
-      <c r="E70">
+      <c r="H70">
         <v>767</v>
       </c>
-      <c r="F70" s="1">
-        <v>1</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70" s="1">
-        <v>0</v>
+      <c r="I70" s="1">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
       </c>
       <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70" s="1">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70" s="1">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70" s="1">
         <v>0.96599999999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:15">
       <c r="A71" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B71" t="s">
-        <v>15</v>
-      </c>
-      <c r="C71">
+      <c r="E71" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71">
         <v>65.650000000000006</v>
       </c>
-      <c r="D71">
+      <c r="G71">
         <v>11.5</v>
       </c>
-      <c r="E71">
+      <c r="H71">
         <v>116</v>
       </c>
-      <c r="F71" s="1">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71" s="1">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71" s="1">
+      <c r="I71" s="1">
+        <v>0</v>
+      </c>
+      <c r="J71">
         <v>0</v>
       </c>
       <c r="K71" s="1">
-        <v>1</v>
-      </c>
-      <c r="L71" s="1">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71" s="1">
+        <v>0</v>
+      </c>
+      <c r="N71" s="1">
+        <v>1</v>
+      </c>
+      <c r="O71" s="1">
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:15">
       <c r="A72" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B72" t="s">
-        <v>15</v>
-      </c>
-      <c r="C72">
+      <c r="E72" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72">
         <v>70.53</v>
       </c>
-      <c r="D72">
+      <c r="G72">
         <v>17.260000000000002</v>
       </c>
-      <c r="E72">
+      <c r="H72">
         <v>179</v>
       </c>
-      <c r="F72" s="1">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72" s="1">
-        <v>1</v>
-      </c>
-      <c r="I72">
-        <v>1</v>
-      </c>
-      <c r="J72" s="1">
+      <c r="I72" s="1">
+        <v>0</v>
+      </c>
+      <c r="J72">
         <v>0</v>
       </c>
       <c r="K72" s="1">
-        <v>0</v>
-      </c>
-      <c r="L72" s="1">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72" s="1">
+        <v>0</v>
+      </c>
+      <c r="N72" s="1">
+        <v>0</v>
+      </c>
+      <c r="O72" s="1">
         <v>0.91400000000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:15">
       <c r="A73" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B73" t="s">
-        <v>15</v>
-      </c>
-      <c r="C73">
+      <c r="E73" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73">
         <v>52.89</v>
       </c>
-      <c r="D73">
+      <c r="G73">
         <v>22.75</v>
       </c>
-      <c r="E73">
+      <c r="H73">
         <v>146</v>
       </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73" s="1">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73" s="1">
         <v>0.85</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:15" ht="15">
       <c r="A74" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B74" t="s">
+      <c r="E74" t="s">
         <v>13</v>
       </c>
-      <c r="C74">
+      <c r="F74">
         <f>27.5 / 10 * 21</f>
         <v>57.75</v>
       </c>
-      <c r="D74">
+      <c r="G74">
         <f>SQRT(13.52^2 * (21/10)^2)</f>
         <v>28.391999999999999</v>
       </c>
-      <c r="E74">
+      <c r="H74">
         <v>100</v>
       </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74">
         <v>0</v>
       </c>
       <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
         <v>0.74</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:15">
       <c r="A75" t="s">
         <v>88</v>
       </c>
-      <c r="B75" t="s">
-        <v>15</v>
-      </c>
-      <c r="C75">
+      <c r="E75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75">
         <v>63.28</v>
       </c>
-      <c r="D75">
+      <c r="G75">
         <v>23.41</v>
       </c>
-      <c r="E75">
+      <c r="H75">
         <v>455</v>
       </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>1</v>
-      </c>
       <c r="I75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
         <v>0.65800000000000003</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:15">
       <c r="A76" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B76" t="s">
-        <v>15</v>
-      </c>
-      <c r="C76">
+      <c r="E76" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76">
         <v>37.18</v>
       </c>
-      <c r="D76">
+      <c r="G76">
         <v>24.18</v>
       </c>
-      <c r="E76">
+      <c r="H76">
         <v>1206</v>
       </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>1</v>
-      </c>
       <c r="I76">
         <v>0</v>
       </c>
@@ -3648,9 +4159,18 @@
         <v>0</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
         <v>0.77900000000000003</v>
       </c>
     </row>

--- a/data and code/effect_sizes_and_moderators.xlsx
+++ b/data and code/effect_sizes_and_moderators.xlsx
@@ -1,17 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qizhouduan/Documents/GitHub/ptg-covid/data and code/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B12D63A-2256-8F45-9EDE-E4E12B552D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="30240" yWindow="-1460" windowWidth="19200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="135">
   <si>
     <t>Source</t>
   </si>
@@ -226,9 +247,6 @@
     <t>Morales et al (2023)</t>
   </si>
   <si>
-    <t>University Students</t>
-  </si>
-  <si>
     <t>Lan et al (2023)</t>
   </si>
   <si>
@@ -241,9 +259,6 @@
     <t>Bai et al. (2023)</t>
   </si>
   <si>
-    <t>Nurses/Healthcare workers</t>
-  </si>
-  <si>
     <t>Akdag et al. (2023)</t>
   </si>
   <si>
@@ -292,18 +307,12 @@
     <t>Levinsky et al. (2024)</t>
   </si>
   <si>
-    <t>ultra-Orthodox Jewish</t>
-  </si>
-  <si>
     <t>Liu G. et al (2024)</t>
   </si>
   <si>
     <t>Liu S. et al (2024)</t>
   </si>
   <si>
-    <t>parents</t>
-  </si>
-  <si>
     <t>Moreno-Jimenez et al. (2021)</t>
   </si>
   <si>
@@ -313,18 +322,12 @@
     <t>Nowicki et al. (2024)</t>
   </si>
   <si>
-    <t>nurse</t>
-  </si>
-  <si>
     <t>Iran</t>
   </si>
   <si>
     <t>Özönder et al. (2023)</t>
   </si>
   <si>
-    <t>patients</t>
-  </si>
-  <si>
     <t>Petrocchi et al. (2023)</t>
   </si>
   <si>
@@ -424,49 +427,61 @@
     <t>Zurko et al. (2022)</t>
   </si>
   <si>
-    <t>Students</t>
-  </si>
-  <si>
     <t>Poland</t>
+  </si>
+  <si>
+    <t>College Students</t>
+  </si>
+  <si>
+    <t>Ultra-Orthodox Jewish</t>
+  </si>
+  <si>
+    <t>General Students</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -474,7 +489,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -484,49 +499,50 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -716,37 +732,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="26.38"/>
-    <col customWidth="1" min="2" max="2" width="9.63"/>
-    <col customWidth="1" min="3" max="3" width="22.0"/>
-    <col customWidth="1" min="4" max="4" width="11.5"/>
-    <col customWidth="1" min="5" max="5" width="9.63"/>
-    <col customWidth="1" min="6" max="6" width="9.0"/>
-    <col customWidth="1" min="7" max="8" width="10.13"/>
-    <col customWidth="1" min="9" max="9" width="6.88"/>
-    <col customWidth="1" min="10" max="10" width="6.13"/>
-    <col customWidth="1" min="11" max="11" width="6.63"/>
-    <col customWidth="1" min="12" max="12" width="7.88"/>
-    <col customWidth="1" min="13" max="13" width="5.63"/>
-    <col customWidth="1" min="14" max="14" width="13.0"/>
-    <col customWidth="1" min="15" max="15" width="19.63"/>
-    <col customWidth="1" min="16" max="26" width="11.5"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="8" width="10.1640625" customWidth="1"/>
+    <col min="9" max="9" width="6.83203125" customWidth="1"/>
+    <col min="10" max="10" width="6.1640625" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="7.83203125" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" customWidth="1"/>
+    <col min="16" max="26" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -793,7 +811,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -810,43 +828,43 @@
         <v>18</v>
       </c>
       <c r="F2" s="1">
-        <v>22.258</v>
+        <v>22.257999999999999</v>
       </c>
       <c r="G2" s="1">
-        <v>5.052</v>
+        <v>5.0519999999999996</v>
       </c>
       <c r="H2" s="3">
         <f>226+155</f>
         <v>381</v>
       </c>
       <c r="I2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="2">
-        <v>0.407</v>
-      </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1">
+        <v>0.40699999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -858,38 +876,38 @@
         <v>22</v>
       </c>
       <c r="F3" s="1">
-        <v>65.195</v>
+        <v>65.194999999999993</v>
       </c>
       <c r="G3" s="1">
-        <v>17.944</v>
+        <v>17.943999999999999</v>
       </c>
       <c r="H3" s="3">
         <f>94+141+84+46</f>
         <v>365</v>
       </c>
       <c r="I3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>0.682</v>
-      </c>
-    </row>
-    <row r="4" ht="12.75" customHeight="1">
+        <v>0.68200000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -909,40 +927,40 @@
         <v>55.78</v>
       </c>
       <c r="G4" s="1">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="H4" s="3">
         <f>517+399</f>
         <v>916</v>
       </c>
       <c r="I4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5" ht="12.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="1">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
@@ -961,31 +979,31 @@
         <v>10.44</v>
       </c>
       <c r="H5" s="3">
-        <v>422.0</v>
+        <v>422</v>
       </c>
       <c r="I5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0.445</v>
-      </c>
-    </row>
-    <row r="6" ht="12.75" customHeight="1">
+        <v>0.44500000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -1002,37 +1020,37 @@
         <v>18</v>
       </c>
       <c r="F6" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1">
         <v>11.5</v>
       </c>
       <c r="H6" s="3">
-        <v>12596.0</v>
+        <v>12596</v>
       </c>
       <c r="I6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
-        <v>0.956</v>
-      </c>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
+        <v>0.95599999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1052,31 +1070,31 @@
         <v>11.7</v>
       </c>
       <c r="H7" s="3">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="I7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -1099,36 +1117,36 @@
         <v>24.63</v>
       </c>
       <c r="H8" s="3">
-        <v>352.0</v>
+        <v>352</v>
       </c>
       <c r="I8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="1">
-        <v>0.758</v>
-      </c>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
+        <v>0.75800000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
@@ -1150,28 +1168,28 @@
         <v>327</v>
       </c>
       <c r="I9" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0.719</v>
-      </c>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
+        <v>0.71899999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -1194,36 +1212,36 @@
         <v>11.01</v>
       </c>
       <c r="H10" s="3">
-        <v>1424.0</v>
+        <v>1424</v>
       </c>
       <c r="I10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
         <v>0.753</v>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="1">
-        <v>35.41</v>
+        <v>35.409999999999997</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>40</v>
@@ -1235,42 +1253,42 @@
         <v>22</v>
       </c>
       <c r="F11" s="1">
-        <v>78.4</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="G11" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="H11" s="3">
-        <v>251.0</v>
+        <v>251</v>
       </c>
       <c r="I11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0.709</v>
-      </c>
-    </row>
-    <row r="12" ht="12.75" customHeight="1">
+        <v>0.70899999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B12" s="1">
-        <v>32.34</v>
+        <v>32.340000000000003</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>30</v>
@@ -1288,36 +1306,36 @@
         <v>21.57</v>
       </c>
       <c r="H12" s="3">
-        <v>266.0</v>
+        <v>266</v>
       </c>
       <c r="I12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="1">
         <v>0.91</v>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="1">
-        <v>39.7</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
@@ -1329,42 +1347,42 @@
         <v>22</v>
       </c>
       <c r="F13" s="1">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="G13" s="1">
         <v>28.2</v>
       </c>
       <c r="H13" s="3">
-        <v>296.0</v>
+        <v>296</v>
       </c>
       <c r="I13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="1">
-        <v>0.588</v>
-      </c>
-    </row>
-    <row r="14" ht="12.75" customHeight="1">
+        <v>0.58799999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>20</v>
@@ -1382,31 +1400,31 @@
         <v>6.8</v>
       </c>
       <c r="H14" s="3">
-        <v>12686.0</v>
+        <v>12686</v>
       </c>
       <c r="I14" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M14" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
+    <row r="15" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
@@ -1429,31 +1447,31 @@
         <v>7.6</v>
       </c>
       <c r="H15" s="3">
-        <v>1951.0</v>
+        <v>1951</v>
       </c>
       <c r="I15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O15" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
+    <row r="16" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -1476,36 +1494,36 @@
         <v>24.48</v>
       </c>
       <c r="H16" s="3">
-        <v>176.0</v>
+        <v>176</v>
       </c>
       <c r="I16" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O16" s="1">
-        <v>0.579</v>
-      </c>
-    </row>
-    <row r="17" ht="12.75" customHeight="1">
+        <v>0.57899999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B17" s="1">
-        <v>36.8</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>30</v>
@@ -1520,34 +1538,34 @@
         <v>21.9</v>
       </c>
       <c r="G17" s="1">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="H17" s="3">
-        <v>1510.0</v>
+        <v>1510</v>
       </c>
       <c r="I17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L17" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" ht="12.75" customHeight="1">
+    <row r="18" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
@@ -1570,31 +1588,31 @@
         <v>20.64</v>
       </c>
       <c r="H18" s="3">
-        <v>292.0</v>
+        <v>292</v>
       </c>
       <c r="I18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O18" s="1">
-        <v>0.785</v>
-      </c>
-    </row>
-    <row r="19" ht="12.75" customHeight="1">
+        <v>0.78500000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>53</v>
       </c>
@@ -1614,31 +1632,31 @@
         <v>14.79</v>
       </c>
       <c r="H19" s="3">
-        <v>1790.0</v>
+        <v>1790</v>
       </c>
       <c r="I19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="1">
-        <v>0.994</v>
-      </c>
-    </row>
-    <row r="20" ht="12.75" customHeight="1">
+        <v>0.99399999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>54</v>
       </c>
@@ -1661,31 +1679,31 @@
         <v>26.76</v>
       </c>
       <c r="H20" s="3">
-        <v>442.0</v>
+        <v>442</v>
       </c>
       <c r="I20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="1">
-        <v>0.523</v>
-      </c>
-    </row>
-    <row r="21" ht="12.75" customHeight="1">
+        <v>0.52300000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>55</v>
       </c>
@@ -1708,36 +1726,36 @@
         <v>18.53</v>
       </c>
       <c r="H21" s="3">
-        <v>1512.0</v>
+        <v>1512</v>
       </c>
       <c r="I21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L21" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O21" s="1">
-        <v>0.938</v>
-      </c>
-    </row>
-    <row r="22" ht="12.75" customHeight="1">
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B22" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>20</v>
@@ -1755,36 +1773,36 @@
         <v>11.65</v>
       </c>
       <c r="H22" s="3">
-        <v>252.0</v>
+        <v>252</v>
       </c>
       <c r="I22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L22" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O22" s="1">
-        <v>0.717</v>
-      </c>
-    </row>
-    <row r="23" ht="12.75" customHeight="1">
+        <v>0.71699999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B23" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>59</v>
@@ -1802,36 +1820,36 @@
         <v>20.27</v>
       </c>
       <c r="H23" s="3">
-        <v>166.0</v>
+        <v>166</v>
       </c>
       <c r="I23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L23" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O23" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="24" ht="12.75" customHeight="1">
+    <row r="24" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B24" s="2">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>61</v>
@@ -1849,38 +1867,38 @@
         <v>11.93</v>
       </c>
       <c r="H24" s="3">
-        <v>290.0</v>
+        <v>290</v>
       </c>
       <c r="I24" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L24" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N24" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="2">
-        <v>0.538</v>
-      </c>
-    </row>
-    <row r="25" ht="12.75" customHeight="1">
+        <v>0.53800000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B25" s="1">
         <v>22.42</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -1896,31 +1914,31 @@
         <v>20.91</v>
       </c>
       <c r="H25" s="3">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="I25" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L25" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O25" s="1">
-        <v>0.384</v>
-      </c>
-    </row>
-    <row r="26" ht="12.75" customHeight="1">
+        <v>0.38400000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>65</v>
       </c>
@@ -1943,31 +1961,31 @@
         <v>23.1</v>
       </c>
       <c r="H26" s="3">
-        <v>733.0</v>
+        <v>733</v>
       </c>
       <c r="I26" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L26" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N26" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O26" s="2">
         <v>0.622</v>
       </c>
     </row>
-    <row r="27" ht="12.75" customHeight="1">
+    <row r="27" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>67</v>
       </c>
@@ -1984,45 +2002,45 @@
         <v>18</v>
       </c>
       <c r="F27" s="1">
-        <v>20.35</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="G27" s="1">
         <v>10.92</v>
       </c>
       <c r="H27" s="3">
-        <v>854.0</v>
+        <v>854</v>
       </c>
       <c r="I27" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M27" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N27" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O27" s="1">
-        <v>0.817</v>
-      </c>
-    </row>
-    <row r="28" ht="12.75" customHeight="1">
+        <v>0.81699999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B28" s="2">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>62</v>
@@ -2037,39 +2055,39 @@
         <v>12.5</v>
       </c>
       <c r="H28" s="3">
-        <v>785.0</v>
+        <v>785</v>
       </c>
       <c r="I28" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L28" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N28" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="2">
-        <v>0.596</v>
-      </c>
-    </row>
-    <row r="29" ht="12.75" customHeight="1">
+        <v>0.59599999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B29" s="1">
         <v>22.37</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>28</v>
@@ -2084,33 +2102,33 @@
         <v>23.19</v>
       </c>
       <c r="H29" s="3">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="I29" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L29" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O29" s="1">
-        <v>0.574</v>
-      </c>
-    </row>
-    <row r="30" ht="12.75" customHeight="1">
+        <v>0.57399999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30" s="1">
         <v>41.6</v>
@@ -2129,43 +2147,43 @@
         <v>50.52</v>
       </c>
       <c r="G30" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H30" s="3">
         <f>253+176</f>
         <v>429</v>
       </c>
       <c r="I30" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K30" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N30" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O30" s="2">
-        <v>0.783</v>
-      </c>
-    </row>
-    <row r="31" ht="12.75" customHeight="1">
+        <v>0.78300000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31" s="1">
         <v>34.1</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>28</v>
@@ -2180,33 +2198,33 @@
         <v>21.8</v>
       </c>
       <c r="H31" s="3">
-        <v>407.0</v>
+        <v>407</v>
       </c>
       <c r="I31" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L31" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N31" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O31" s="1">
-        <v>0.797</v>
-      </c>
-    </row>
-    <row r="32" ht="12.75" customHeight="1">
+        <v>0.79700000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B32" s="1">
         <v>30.38</v>
@@ -2227,33 +2245,33 @@
         <v>22.54</v>
       </c>
       <c r="H32" s="3">
-        <v>184.0</v>
+        <v>184</v>
       </c>
       <c r="I32" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M32" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N32" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O32" s="2">
         <v>0.77</v>
       </c>
     </row>
-    <row r="33" ht="12.75" customHeight="1">
+    <row r="33" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B33" s="1">
         <v>32.14</v>
@@ -2274,81 +2292,81 @@
         <v>15.73</v>
       </c>
       <c r="H33" s="3">
-        <v>263.0</v>
+        <v>263</v>
       </c>
       <c r="I33" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K33" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M33" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N33" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O33" s="1">
-        <v>0.567</v>
-      </c>
-    </row>
-    <row r="34" ht="12.75" customHeight="1">
+        <v>0.56699999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B34" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F34" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="G34" s="1">
         <f>1.35 * 16</f>
         <v>21.6</v>
       </c>
       <c r="H34" s="3">
-        <v>152.0</v>
+        <v>152</v>
       </c>
       <c r="I34" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M34" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N34" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O34" s="2">
-        <v>0.355</v>
-      </c>
-    </row>
-    <row r="35" ht="12.75" customHeight="1">
+        <v>0.35499999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B35" s="1">
         <v>31.04</v>
@@ -2364,40 +2382,40 @@
       </c>
       <c r="F35" s="1">
         <f>73.92 /25 * 21</f>
-        <v>62.0928</v>
+        <v>62.092799999999997</v>
       </c>
       <c r="G35" s="1">
         <f>SQRT(22.1^2 *(21/25)^2 )</f>
         <v>18.564</v>
       </c>
       <c r="H35" s="3">
-        <v>692.0</v>
+        <v>692</v>
       </c>
       <c r="I35" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K35" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M35" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N35" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O35" s="1">
-        <v>0.991</v>
-      </c>
-    </row>
-    <row r="36" ht="12.75" customHeight="1">
+        <v>0.99099999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B36" s="1">
         <v>51.44</v>
@@ -2405,7 +2423,7 @@
       <c r="C36" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -2418,41 +2436,41 @@
         <v>26.59</v>
       </c>
       <c r="H36" s="3">
-        <v>118.0</v>
+        <v>118</v>
       </c>
       <c r="I36" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K36" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M36" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N36" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O36" s="2">
-        <v>0.737</v>
-      </c>
-    </row>
-    <row r="37" ht="12.75" customHeight="1">
+        <v>0.73699999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="5" t="s">
         <v>66</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -2465,33 +2483,33 @@
         <v>25.46</v>
       </c>
       <c r="H37" s="3">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="I37" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J37" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K37" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L37" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M37" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N37" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O37" s="2">
-        <v>0.743</v>
-      </c>
-    </row>
-    <row r="38" ht="12.75" customHeight="1">
+        <v>0.74299999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B38" s="1">
         <v>47.37</v>
@@ -2507,45 +2525,45 @@
       </c>
       <c r="F38" s="1">
         <f>3.01 * 21</f>
-        <v>63.21</v>
+        <v>63.209999999999994</v>
       </c>
       <c r="G38" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="H38" s="3">
-        <v>183.0</v>
+        <v>183</v>
       </c>
       <c r="I38" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J38" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M38" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N38" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O38" s="2">
         <v>0.65</v>
       </c>
     </row>
-    <row r="39" ht="12.75" customHeight="1">
+    <row r="39" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B39" s="1">
-        <v>37.62</v>
+        <v>37.619999999999997</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>31</v>
@@ -2559,36 +2577,36 @@
       </c>
       <c r="G39" s="2">
         <f>SQRT(0.51^2 * 10^2)</f>
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H39" s="3">
-        <v>436.0</v>
+        <v>436</v>
       </c>
       <c r="I39" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K39" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M39" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N39" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O39" s="2">
-        <v>0.6995</v>
-      </c>
-    </row>
-    <row r="40" ht="12.75" customHeight="1">
+        <v>0.69950000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B40" s="1">
         <v>44.77</v>
@@ -2604,40 +2622,40 @@
       </c>
       <c r="F40" s="1">
         <f>3.62 *10</f>
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="G40" s="1">
         <f>SQRT(1.22^2 * 100)</f>
         <v>12.2</v>
       </c>
       <c r="H40" s="3">
-        <v>295.0</v>
+        <v>295</v>
       </c>
       <c r="I40" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J40" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K40" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L40" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M40" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N40" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O40" s="2">
-        <v>0.637</v>
-      </c>
-    </row>
-    <row r="41" ht="12.75" customHeight="1">
+        <v>0.63700000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B41" s="1">
         <v>41.8</v>
@@ -2646,7 +2664,7 @@
         <v>30</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>22</v>
@@ -2655,36 +2673,36 @@
         <v>62.24</v>
       </c>
       <c r="G41" s="2">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="H41" s="3">
-        <v>429.0</v>
+        <v>429</v>
       </c>
       <c r="I41" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J41" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K41" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M41" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N41" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O41" s="2">
         <v>0.47</v>
       </c>
     </row>
-    <row r="42" ht="12.75" customHeight="1">
+    <row r="42" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B42" s="1">
         <v>41.8</v>
@@ -2702,42 +2720,42 @@
         <v>47.4</v>
       </c>
       <c r="G42" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="H42" s="3">
-        <v>213.0</v>
+        <v>213</v>
       </c>
       <c r="I42" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K42" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M42" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N42" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O42" s="2">
         <v>0.874</v>
       </c>
     </row>
-    <row r="43" ht="12.75" customHeight="1">
+    <row r="43" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B43" s="1">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>25</v>
@@ -2747,43 +2765,43 @@
       </c>
       <c r="F43" s="2">
         <f>2.169 * 21</f>
-        <v>45.549</v>
+        <v>45.548999999999999</v>
       </c>
       <c r="G43" s="2">
         <f>SQRT( 1.299^2 * 21^2)</f>
         <v>27.279</v>
       </c>
       <c r="H43" s="3">
-        <v>369.0</v>
+        <v>369</v>
       </c>
       <c r="I43" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J43" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M43" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N43" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O43" s="2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="44" ht="12.75" customHeight="1">
+    <row r="44" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>20</v>
@@ -2796,45 +2814,45 @@
       </c>
       <c r="F44" s="2">
         <f>45.4545</f>
-        <v>45.4545</v>
+        <v>45.454500000000003</v>
       </c>
       <c r="G44" s="2">
-        <v>25.452</v>
+        <v>25.452000000000002</v>
       </c>
       <c r="H44" s="3">
-        <v>575.0</v>
+        <v>575</v>
       </c>
       <c r="I44" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J44" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L44" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M44" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N44" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O44" s="2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="45" ht="12.75" customHeight="1">
+    <row r="45" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>31</v>
@@ -2843,42 +2861,42 @@
         <v>22</v>
       </c>
       <c r="F45" s="1">
-        <v>37.086</v>
+        <v>37.085999999999999</v>
       </c>
       <c r="G45" s="1">
-        <v>58.86035</v>
+        <v>58.860349999999997</v>
       </c>
       <c r="H45" s="3">
-        <v>669.0</v>
+        <v>669</v>
       </c>
       <c r="I45" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K45" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M45" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N45" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O45" s="2">
-        <v>0.607</v>
-      </c>
-    </row>
-    <row r="46" ht="12.75" customHeight="1">
+        <v>0.60699999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B46" s="1">
-        <v>38.09</v>
+        <v>38.090000000000003</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>68</v>
@@ -2895,39 +2913,39 @@
       </c>
       <c r="G46" s="1">
         <f>SQRT(0.84^2 * 10^2)</f>
-        <v>8.4</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="H46" s="3">
-        <v>172.0</v>
+        <v>172</v>
       </c>
       <c r="I46" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K46" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M46" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N46" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O46" s="2">
-        <v>0.9775</v>
-      </c>
-    </row>
-    <row r="47" ht="12.75" customHeight="1">
+        <v>0.97750000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>20</v>
@@ -2947,88 +2965,88 @@
         <v>15.33</v>
       </c>
       <c r="H47" s="3">
-        <v>760.0</v>
+        <v>760</v>
       </c>
       <c r="I47" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K47" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M47" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N47" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O47" s="2">
-        <v>0.831</v>
-      </c>
-    </row>
-    <row r="48" ht="12.75" customHeight="1">
+        <v>0.83099999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B48" s="1">
         <v>43.1</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F48" s="1">
         <f>2.74 * 21</f>
-        <v>57.54</v>
+        <v>57.540000000000006</v>
       </c>
       <c r="G48" s="1">
         <f>SQRT(1.21^2 * 21^2)</f>
         <v>25.41</v>
       </c>
       <c r="H48" s="3">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="I48" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K48" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L48" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M48" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N48" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O48" s="2">
-        <v>0.837</v>
-      </c>
-    </row>
-    <row r="49" ht="12.75" customHeight="1">
+        <v>0.83699999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B49" s="1">
         <v>57.29</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>66</v>
@@ -3043,33 +3061,33 @@
         <v>9.69</v>
       </c>
       <c r="H49" s="3">
-        <v>253.0</v>
+        <v>253</v>
       </c>
       <c r="I49" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K49" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M49" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N49" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O49" s="2">
-        <v>0.825</v>
-      </c>
-    </row>
-    <row r="50" ht="12.75" customHeight="1">
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B50" s="1">
         <v>57.83</v>
@@ -3078,7 +3096,7 @@
         <v>20</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>22</v>
@@ -3092,39 +3110,39 @@
         <v>47.67</v>
       </c>
       <c r="H50" s="3">
-        <v>4934.0</v>
+        <v>4934</v>
       </c>
       <c r="I50" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K50" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M50" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N50" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O50" s="2">
         <v>0.628</v>
       </c>
     </row>
-    <row r="51" ht="12.75" customHeight="1">
+    <row r="51" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>31</v>
@@ -3141,36 +3159,36 @@
         <v>25.2</v>
       </c>
       <c r="H51" s="3">
-        <v>163.0</v>
+        <v>163</v>
       </c>
       <c r="I51" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K51" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M51" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N51" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O51" s="2">
-        <v>0.555</v>
-      </c>
-    </row>
-    <row r="52" ht="12.75" customHeight="1">
+        <v>0.55500000000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B52" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>20</v>
@@ -3182,43 +3200,43 @@
         <v>22</v>
       </c>
       <c r="F52" s="2">
-        <v>67.49</v>
+        <v>67.489999999999995</v>
       </c>
       <c r="G52" s="2">
         <f>2.73</f>
         <v>2.73</v>
       </c>
       <c r="H52" s="3">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="I52" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J52" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K52" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M52" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N52" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O52" s="2">
         <v>0.68</v>
       </c>
     </row>
-    <row r="53" ht="12.75" customHeight="1">
+    <row r="53" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>30</v>
@@ -3236,137 +3254,137 @@
         <v>25.3</v>
       </c>
       <c r="H53" s="3">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="I53" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J53" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K53" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L53" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M53" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N53" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O53" s="2">
         <v>0.88</v>
       </c>
     </row>
-    <row r="54" ht="12.75" customHeight="1">
-      <c r="A54" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>84</v>
+    <row r="54" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F54" s="2">
-        <v>17.83</v>
+        <v>17.829999999999998</v>
       </c>
       <c r="G54" s="2">
         <v>10.3</v>
       </c>
-      <c r="H54" s="9">
-        <v>364.0</v>
+      <c r="H54" s="7">
+        <v>364</v>
       </c>
       <c r="I54" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J54" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K54" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L54" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M54" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N54" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O54" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="55" ht="12.75" customHeight="1">
+    <row r="55" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C55" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>111</v>
+      <c r="D55" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F55" s="1">
         <f>3.62 *10</f>
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="G55" s="1">
         <f>SQRT(0.9^2 * 10^2)</f>
         <v>9</v>
       </c>
       <c r="H55" s="3">
-        <v>441.0</v>
+        <v>441</v>
       </c>
       <c r="I55" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K55" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M55" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N55" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O55" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" ht="12.75" customHeight="1">
+    <row r="56" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B56" s="8">
+        <v>106</v>
+      </c>
+      <c r="B56" s="1">
         <v>19.89</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -3381,41 +3399,41 @@
         <v>20.79</v>
       </c>
       <c r="H56" s="3">
-        <v>1711.0</v>
+        <v>1711</v>
       </c>
       <c r="I56" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J56" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K56" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M56" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N56" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O56" s="2">
-        <v>0.714</v>
-      </c>
-    </row>
-    <row r="57" ht="12.75" customHeight="1">
+        <v>0.71399999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B57" s="8">
+        <v>107</v>
+      </c>
+      <c r="B57" s="1">
         <v>39.5</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E57" s="1" t="s">
@@ -3428,90 +3446,90 @@
         <v>26.28</v>
       </c>
       <c r="H57" s="3">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="I57" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J57" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K57" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L57" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M57" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N57" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O57" s="2">
-        <v>0.388</v>
-      </c>
-    </row>
-    <row r="58" ht="12.75" customHeight="1">
+        <v>0.38800000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B58" s="8">
+        <v>108</v>
+      </c>
+      <c r="B58" s="1">
         <v>30.28</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D58" s="8" t="s">
-        <v>115</v>
+      <c r="D58" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F58" s="2">
         <f>43.8 /16 *21</f>
-        <v>57.4875</v>
+        <v>57.487499999999997</v>
       </c>
       <c r="G58" s="1">
         <f>SQRT(14.65^2 * (21/16)^2)</f>
-        <v>19.228125</v>
+        <v>19.228125000000002</v>
       </c>
       <c r="H58" s="3">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="I58" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J58" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K58" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L58" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M58" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N58" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O58" s="2">
-        <v>0.636</v>
-      </c>
-    </row>
-    <row r="59" ht="12.75" customHeight="1">
+        <v>0.63600000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B59" s="8">
+        <v>110</v>
+      </c>
+      <c r="B59" s="1">
         <v>32.64</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -3519,48 +3537,48 @@
       </c>
       <c r="F59" s="1">
         <f>76.74 / 25 *21</f>
-        <v>64.4616</v>
+        <v>64.461600000000004</v>
       </c>
       <c r="G59" s="1">
         <f>SQRT(27.13^2 * (21/25)^2)</f>
-        <v>22.7892</v>
+        <v>22.789199999999997</v>
       </c>
       <c r="H59" s="3">
-        <v>589.0</v>
+        <v>589</v>
       </c>
       <c r="I59" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K59" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M59" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N59" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O59" s="2">
-        <v>0.908</v>
-      </c>
-    </row>
-    <row r="60" ht="12.75" customHeight="1">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B60" s="8">
+        <v>111</v>
+      </c>
+      <c r="B60" s="1">
         <v>26.68</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -3573,42 +3591,42 @@
         <v>9.48</v>
       </c>
       <c r="H60" s="3">
-        <v>2267.0</v>
+        <v>2267</v>
       </c>
       <c r="I60" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J60" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K60" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L60" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M60" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N60" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O60" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="61" ht="12.75" customHeight="1">
+    <row r="61" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B61" s="8">
-        <v>52.0</v>
-      </c>
-      <c r="C61" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B61" s="1">
+        <v>52</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="8" t="s">
-        <v>101</v>
+      <c r="D61" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>22</v>
@@ -3621,42 +3639,42 @@
         <v>0.52</v>
       </c>
       <c r="H61" s="3">
-        <v>700.0</v>
+        <v>700</v>
       </c>
       <c r="I61" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K61" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L61" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M61" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N61" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O61" s="2">
-        <v>0.547</v>
-      </c>
-    </row>
-    <row r="62" ht="12.75" customHeight="1">
+        <v>0.54700000000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B62" s="8">
+        <v>113</v>
+      </c>
+      <c r="B62" s="1">
         <v>30.67</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D62" s="8" t="s">
-        <v>120</v>
+      <c r="D62" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>22</v>
@@ -3668,42 +3686,42 @@
         <v>21.28</v>
       </c>
       <c r="H62" s="3">
-        <v>144.0</v>
+        <v>144</v>
       </c>
       <c r="I62" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J62" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K62" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L62" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M62" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N62" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O62" s="2">
         <v>0.436</v>
       </c>
     </row>
-    <row r="63" ht="12.75" customHeight="1">
+    <row r="63" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B63" s="8">
+        <v>115</v>
+      </c>
+      <c r="B63" s="1">
         <v>41.8</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D63" s="8" t="s">
-        <v>90</v>
+      <c r="D63" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>22</v>
@@ -3715,41 +3733,41 @@
         <v>24.61</v>
       </c>
       <c r="H63" s="3">
-        <v>673.0</v>
+        <v>673</v>
       </c>
       <c r="I63" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K63" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L63" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M63" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N63" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O63" s="2">
-        <v>0.722</v>
-      </c>
-    </row>
-    <row r="64" ht="12.75" customHeight="1">
+        <v>0.72199999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B64" s="8">
+        <v>116</v>
+      </c>
+      <c r="B64" s="1">
         <v>51.57</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E64" s="1" t="s">
@@ -3763,41 +3781,41 @@
         <v>1.06</v>
       </c>
       <c r="H64" s="3">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="I64" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J64" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K64" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L64" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M64" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N64" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O64" s="2">
         <v>0.747</v>
       </c>
     </row>
-    <row r="65" ht="12.75" customHeight="1">
+    <row r="65" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B65" s="8">
+        <v>117</v>
+      </c>
+      <c r="B65" s="1">
         <v>43.35</v>
       </c>
-      <c r="C65" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D65" s="8" t="s">
+      <c r="C65" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E65" s="1" t="s">
@@ -3805,94 +3823,94 @@
       </c>
       <c r="F65" s="2">
         <f>2.24*21</f>
-        <v>47.04</v>
+        <v>47.040000000000006</v>
       </c>
       <c r="G65" s="1">
         <v>1.24</v>
       </c>
       <c r="H65" s="3">
-        <v>179.0</v>
+        <v>179</v>
       </c>
       <c r="I65" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K65" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L65" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M65" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N65" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O65" s="2">
         <v>0.83</v>
       </c>
     </row>
-    <row r="66" ht="12.75" customHeight="1">
+    <row r="66" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B66" s="10">
-        <v>35.0</v>
-      </c>
-      <c r="C66" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B66" s="8">
+        <v>35</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F66" s="9">
         <v>37.1</v>
       </c>
       <c r="G66" s="2">
         <v>24.7</v>
       </c>
       <c r="H66" s="3">
-        <v>202.0</v>
+        <v>202</v>
       </c>
       <c r="I66" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J66" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K66" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L66" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M66" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N66" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O66" s="2">
-        <v>0.444</v>
-      </c>
-    </row>
-    <row r="67" ht="12.75" customHeight="1">
+        <v>0.44400000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B67" s="8">
+        <v>120</v>
+      </c>
+      <c r="B67" s="1">
         <v>30.39</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -3904,42 +3922,42 @@
       <c r="G67" s="2">
         <v>18.27</v>
       </c>
-      <c r="H67" s="9">
-        <v>2750.0</v>
+      <c r="H67" s="7">
+        <v>2750</v>
       </c>
       <c r="I67" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K67" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M67" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N67" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O67" s="2">
-        <v>0.767</v>
-      </c>
-    </row>
-    <row r="68" ht="12.75" customHeight="1">
+        <v>0.76700000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B68" s="10">
-        <v>60.0</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D68" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B68" s="8">
+        <v>60</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E68" s="1" t="s">
@@ -3947,95 +3965,95 @@
       </c>
       <c r="F68" s="1">
         <f>3.65*21</f>
-        <v>76.65</v>
+        <v>76.649999999999991</v>
       </c>
       <c r="G68" s="1">
         <v>0.77</v>
       </c>
       <c r="H68" s="3">
-        <v>338.0</v>
+        <v>338</v>
       </c>
       <c r="I68" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J68" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K68" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L68" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M68" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N68" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O68" s="2">
-        <v>0.953</v>
-      </c>
-    </row>
-    <row r="69" ht="12.75" customHeight="1">
+        <v>0.95299999999999996</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B69" s="8">
+        <v>123</v>
+      </c>
+      <c r="B69" s="1">
         <v>41.53</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F69" s="1">
-        <v>76.18</v>
+        <v>76.180000000000007</v>
       </c>
       <c r="G69" s="1">
-        <v>16.004</v>
+        <v>16.004000000000001</v>
       </c>
       <c r="H69" s="3">
-        <v>233.0</v>
+        <v>233</v>
       </c>
       <c r="I69" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K69" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M69" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N69" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O69" s="2">
-        <v>0.494</v>
-      </c>
-    </row>
-    <row r="70" ht="12.75" customHeight="1">
+        <v>0.49399999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B70" s="8">
+        <v>124</v>
+      </c>
+      <c r="B70" s="1">
         <v>45.93</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D70" s="8" t="s">
-        <v>120</v>
+      <c r="D70" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>18</v>
@@ -4047,88 +4065,88 @@
         <v>11.72</v>
       </c>
       <c r="H70" s="3">
-        <v>767.0</v>
+        <v>767</v>
       </c>
       <c r="I70" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J70" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K70" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M70" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O70" s="2">
-        <v>0.966</v>
-      </c>
-    </row>
-    <row r="71" ht="12.75" customHeight="1">
+        <v>0.96599999999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B71" s="8">
+        <v>125</v>
+      </c>
+      <c r="B71" s="1">
         <v>34.07</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F71" s="1">
-        <v>65.65</v>
+        <v>65.650000000000006</v>
       </c>
       <c r="G71" s="1">
         <v>11.5</v>
       </c>
       <c r="H71" s="3">
-        <v>116.0</v>
+        <v>116</v>
       </c>
       <c r="I71" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K71" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M71" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N71" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O71" s="2">
-        <v>0.895</v>
-      </c>
-    </row>
-    <row r="72" ht="12.75" customHeight="1">
+        <v>0.89500000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B72" s="8">
-        <v>30.0</v>
-      </c>
-      <c r="C72" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B72" s="1">
         <v>30</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="C72" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -4138,44 +4156,44 @@
         <v>70.53</v>
       </c>
       <c r="G72" s="1">
-        <v>17.26</v>
+        <v>17.260000000000002</v>
       </c>
       <c r="H72" s="3">
-        <v>179.0</v>
+        <v>179</v>
       </c>
       <c r="I72" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J72" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K72" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L72" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M72" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N72" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O72" s="2">
-        <v>0.914</v>
-      </c>
-    </row>
-    <row r="73" ht="12.75" customHeight="1">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B73" s="8">
+        <v>127</v>
+      </c>
+      <c r="B73" s="1">
         <v>53.61</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E73" s="1" t="s">
@@ -4188,41 +4206,41 @@
         <v>22.75</v>
       </c>
       <c r="H73" s="3">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="I73" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J73" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K73" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L73" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M73" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N73" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O73" s="2">
         <v>0.85</v>
       </c>
     </row>
-    <row r="74" ht="12.75" customHeight="1">
-      <c r="A74" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B74" s="8">
+    <row r="74" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B74" s="1">
         <v>60.8</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E74" s="1" t="s">
@@ -4234,44 +4252,44 @@
       </c>
       <c r="G74" s="1">
         <f>SQRT(13.52^2 * (21/10)^2)</f>
-        <v>28.392</v>
+        <v>28.391999999999999</v>
       </c>
       <c r="H74" s="3">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="I74" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J74" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K74" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L74" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M74" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N74" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O74" s="1">
         <v>0.74</v>
       </c>
     </row>
-    <row r="75" ht="12.75" customHeight="1">
+    <row r="75" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B75" s="8">
+        <v>129</v>
+      </c>
+      <c r="B75" s="1">
         <v>30.3</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E75" s="1" t="s">
@@ -4284,42 +4302,42 @@
         <v>23.41</v>
       </c>
       <c r="H75" s="3">
-        <v>455.0</v>
+        <v>455</v>
       </c>
       <c r="I75" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J75" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K75" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L75" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M75" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N75" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O75" s="1">
-        <v>0.658</v>
-      </c>
-    </row>
-    <row r="76" ht="12.75" customHeight="1">
+        <v>0.65800000000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B76" s="8">
+        <v>130</v>
+      </c>
+      <c r="B76" s="1">
         <v>21.64</v>
       </c>
-      <c r="C76" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>138</v>
+      <c r="C76" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>22</v>
@@ -4331,962 +4349,960 @@
         <v>24.18</v>
       </c>
       <c r="H76" s="3">
-        <v>1206.0</v>
+        <v>1206</v>
       </c>
       <c r="I76" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J76" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K76" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L76" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M76" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N76" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O76" s="1">
-        <v>0.779</v>
-      </c>
-    </row>
-    <row r="77" ht="12.75" customHeight="1"/>
-    <row r="78" ht="12.75" customHeight="1"/>
-    <row r="79" ht="12.75" customHeight="1"/>
-    <row r="80" ht="12.75" customHeight="1"/>
-    <row r="81" ht="12.75" customHeight="1"/>
-    <row r="82" ht="12.75" customHeight="1"/>
-    <row r="83" ht="12.75" customHeight="1"/>
-    <row r="84" ht="12.75" customHeight="1"/>
-    <row r="85" ht="12.75" customHeight="1"/>
-    <row r="86" ht="12.75" customHeight="1"/>
-    <row r="87" ht="12.75" customHeight="1"/>
-    <row r="88" ht="12.75" customHeight="1"/>
-    <row r="89" ht="12.75" customHeight="1"/>
-    <row r="90" ht="12.75" customHeight="1"/>
-    <row r="91" ht="12.75" customHeight="1"/>
-    <row r="92" ht="12.75" customHeight="1"/>
-    <row r="93" ht="12.75" customHeight="1"/>
-    <row r="94" ht="12.75" customHeight="1"/>
-    <row r="95" ht="12.75" customHeight="1"/>
-    <row r="96" ht="12.75" customHeight="1"/>
-    <row r="97" ht="12.75" customHeight="1"/>
-    <row r="98" ht="12.75" customHeight="1"/>
-    <row r="99" ht="12.75" customHeight="1"/>
-    <row r="100" ht="12.75" customHeight="1"/>
-    <row r="101" ht="12.75" customHeight="1"/>
-    <row r="102" ht="12.75" customHeight="1"/>
-    <row r="103" ht="12.75" customHeight="1"/>
-    <row r="104" ht="12.75" customHeight="1"/>
-    <row r="105" ht="12.75" customHeight="1"/>
-    <row r="106" ht="12.75" customHeight="1"/>
-    <row r="107" ht="12.75" customHeight="1"/>
-    <row r="108" ht="12.75" customHeight="1"/>
-    <row r="109" ht="12.75" customHeight="1"/>
-    <row r="110" ht="12.75" customHeight="1"/>
-    <row r="111" ht="12.75" customHeight="1"/>
-    <row r="112" ht="12.75" customHeight="1"/>
-    <row r="113" ht="12.75" customHeight="1"/>
-    <row r="114" ht="12.75" customHeight="1"/>
-    <row r="115" ht="12.75" customHeight="1"/>
-    <row r="116" ht="12.75" customHeight="1"/>
-    <row r="117" ht="12.75" customHeight="1"/>
-    <row r="118" ht="12.75" customHeight="1"/>
-    <row r="119" ht="12.75" customHeight="1"/>
-    <row r="120" ht="12.75" customHeight="1"/>
-    <row r="121" ht="12.75" customHeight="1"/>
-    <row r="122" ht="12.75" customHeight="1"/>
-    <row r="123" ht="12.75" customHeight="1"/>
-    <row r="124" ht="12.75" customHeight="1"/>
-    <row r="125" ht="12.75" customHeight="1"/>
-    <row r="126" ht="12.75" customHeight="1"/>
-    <row r="127" ht="12.75" customHeight="1"/>
-    <row r="128" ht="12.75" customHeight="1"/>
-    <row r="129" ht="12.75" customHeight="1"/>
-    <row r="130" ht="12.75" customHeight="1"/>
-    <row r="131" ht="12.75" customHeight="1"/>
-    <row r="132" ht="12.75" customHeight="1"/>
-    <row r="133" ht="12.75" customHeight="1"/>
-    <row r="134" ht="12.75" customHeight="1"/>
-    <row r="135" ht="12.75" customHeight="1"/>
-    <row r="136" ht="12.75" customHeight="1"/>
-    <row r="137" ht="12.75" customHeight="1"/>
-    <row r="138" ht="12.75" customHeight="1"/>
-    <row r="139" ht="12.75" customHeight="1"/>
-    <row r="140" ht="12.75" customHeight="1"/>
-    <row r="141" ht="12.75" customHeight="1"/>
-    <row r="142" ht="12.75" customHeight="1"/>
-    <row r="143" ht="12.75" customHeight="1"/>
-    <row r="144" ht="12.75" customHeight="1"/>
-    <row r="145" ht="12.75" customHeight="1"/>
-    <row r="146" ht="12.75" customHeight="1"/>
-    <row r="147" ht="12.75" customHeight="1"/>
-    <row r="148" ht="12.75" customHeight="1"/>
-    <row r="149" ht="12.75" customHeight="1"/>
-    <row r="150" ht="12.75" customHeight="1"/>
-    <row r="151" ht="12.75" customHeight="1"/>
-    <row r="152" ht="12.75" customHeight="1"/>
-    <row r="153" ht="12.75" customHeight="1"/>
-    <row r="154" ht="12.75" customHeight="1"/>
-    <row r="155" ht="12.75" customHeight="1"/>
-    <row r="156" ht="12.75" customHeight="1"/>
-    <row r="157" ht="12.75" customHeight="1"/>
-    <row r="158" ht="12.75" customHeight="1"/>
-    <row r="159" ht="12.75" customHeight="1"/>
-    <row r="160" ht="12.75" customHeight="1"/>
-    <row r="161" ht="12.75" customHeight="1"/>
-    <row r="162" ht="12.75" customHeight="1"/>
-    <row r="163" ht="12.75" customHeight="1"/>
-    <row r="164" ht="12.75" customHeight="1"/>
-    <row r="165" ht="12.75" customHeight="1"/>
-    <row r="166" ht="12.75" customHeight="1"/>
-    <row r="167" ht="12.75" customHeight="1"/>
-    <row r="168" ht="12.75" customHeight="1"/>
-    <row r="169" ht="12.75" customHeight="1"/>
-    <row r="170" ht="12.75" customHeight="1"/>
-    <row r="171" ht="12.75" customHeight="1"/>
-    <row r="172" ht="12.75" customHeight="1"/>
-    <row r="173" ht="12.75" customHeight="1"/>
-    <row r="174" ht="12.75" customHeight="1"/>
-    <row r="175" ht="12.75" customHeight="1"/>
-    <row r="176" ht="12.75" customHeight="1"/>
-    <row r="177" ht="12.75" customHeight="1"/>
-    <row r="178" ht="12.75" customHeight="1"/>
-    <row r="179" ht="12.75" customHeight="1"/>
-    <row r="180" ht="12.75" customHeight="1"/>
-    <row r="181" ht="12.75" customHeight="1"/>
-    <row r="182" ht="12.75" customHeight="1"/>
-    <row r="183" ht="12.75" customHeight="1"/>
-    <row r="184" ht="12.75" customHeight="1"/>
-    <row r="185" ht="12.75" customHeight="1"/>
-    <row r="186" ht="12.75" customHeight="1"/>
-    <row r="187" ht="12.75" customHeight="1"/>
-    <row r="188" ht="12.75" customHeight="1"/>
-    <row r="189" ht="12.75" customHeight="1"/>
-    <row r="190" ht="12.75" customHeight="1"/>
-    <row r="191" ht="12.75" customHeight="1"/>
-    <row r="192" ht="12.75" customHeight="1"/>
-    <row r="193" ht="12.75" customHeight="1"/>
-    <row r="194" ht="12.75" customHeight="1"/>
-    <row r="195" ht="12.75" customHeight="1"/>
-    <row r="196" ht="12.75" customHeight="1"/>
-    <row r="197" ht="12.75" customHeight="1"/>
-    <row r="198" ht="12.75" customHeight="1"/>
-    <row r="199" ht="12.75" customHeight="1"/>
-    <row r="200" ht="12.75" customHeight="1"/>
-    <row r="201" ht="12.75" customHeight="1"/>
-    <row r="202" ht="12.75" customHeight="1"/>
-    <row r="203" ht="12.75" customHeight="1"/>
-    <row r="204" ht="12.75" customHeight="1"/>
-    <row r="205" ht="12.75" customHeight="1"/>
-    <row r="206" ht="12.75" customHeight="1"/>
-    <row r="207" ht="12.75" customHeight="1"/>
-    <row r="208" ht="12.75" customHeight="1"/>
-    <row r="209" ht="12.75" customHeight="1"/>
-    <row r="210" ht="12.75" customHeight="1"/>
-    <row r="211" ht="12.75" customHeight="1"/>
-    <row r="212" ht="12.75" customHeight="1"/>
-    <row r="213" ht="12.75" customHeight="1"/>
-    <row r="214" ht="12.75" customHeight="1"/>
-    <row r="215" ht="12.75" customHeight="1"/>
-    <row r="216" ht="12.75" customHeight="1"/>
-    <row r="217" ht="12.75" customHeight="1"/>
-    <row r="218" ht="12.75" customHeight="1"/>
-    <row r="219" ht="12.75" customHeight="1"/>
-    <row r="220" ht="12.75" customHeight="1"/>
-    <row r="221" ht="12.75" customHeight="1"/>
-    <row r="222" ht="12.75" customHeight="1"/>
-    <row r="223" ht="12.75" customHeight="1"/>
-    <row r="224" ht="12.75" customHeight="1"/>
-    <row r="225" ht="12.75" customHeight="1"/>
-    <row r="226" ht="12.75" customHeight="1"/>
-    <row r="227" ht="12.75" customHeight="1"/>
-    <row r="228" ht="12.75" customHeight="1"/>
-    <row r="229" ht="12.75" customHeight="1"/>
-    <row r="230" ht="12.75" customHeight="1"/>
-    <row r="231" ht="12.75" customHeight="1"/>
-    <row r="232" ht="12.75" customHeight="1"/>
-    <row r="233" ht="12.75" customHeight="1"/>
-    <row r="234" ht="12.75" customHeight="1"/>
-    <row r="235" ht="12.75" customHeight="1"/>
-    <row r="236" ht="12.75" customHeight="1"/>
-    <row r="237" ht="12.75" customHeight="1"/>
-    <row r="238" ht="12.75" customHeight="1"/>
-    <row r="239" ht="12.75" customHeight="1"/>
-    <row r="240" ht="12.75" customHeight="1"/>
-    <row r="241" ht="12.75" customHeight="1"/>
-    <row r="242" ht="12.75" customHeight="1"/>
-    <row r="243" ht="12.75" customHeight="1"/>
-    <row r="244" ht="12.75" customHeight="1"/>
-    <row r="245" ht="12.75" customHeight="1"/>
-    <row r="246" ht="12.75" customHeight="1"/>
-    <row r="247" ht="12.75" customHeight="1"/>
-    <row r="248" ht="12.75" customHeight="1"/>
-    <row r="249" ht="12.75" customHeight="1"/>
-    <row r="250" ht="12.75" customHeight="1"/>
-    <row r="251" ht="12.75" customHeight="1"/>
-    <row r="252" ht="12.75" customHeight="1"/>
-    <row r="253" ht="12.75" customHeight="1"/>
-    <row r="254" ht="12.75" customHeight="1"/>
-    <row r="255" ht="12.75" customHeight="1"/>
-    <row r="256" ht="12.75" customHeight="1"/>
-    <row r="257" ht="12.75" customHeight="1"/>
-    <row r="258" ht="12.75" customHeight="1"/>
-    <row r="259" ht="12.75" customHeight="1"/>
-    <row r="260" ht="12.75" customHeight="1"/>
-    <row r="261" ht="12.75" customHeight="1"/>
-    <row r="262" ht="12.75" customHeight="1"/>
-    <row r="263" ht="12.75" customHeight="1"/>
-    <row r="264" ht="12.75" customHeight="1"/>
-    <row r="265" ht="12.75" customHeight="1"/>
-    <row r="266" ht="12.75" customHeight="1"/>
-    <row r="267" ht="12.75" customHeight="1"/>
-    <row r="268" ht="12.75" customHeight="1"/>
-    <row r="269" ht="12.75" customHeight="1"/>
-    <row r="270" ht="12.75" customHeight="1"/>
-    <row r="271" ht="12.75" customHeight="1"/>
-    <row r="272" ht="12.75" customHeight="1"/>
-    <row r="273" ht="12.75" customHeight="1"/>
-    <row r="274" ht="12.75" customHeight="1"/>
-    <row r="275" ht="12.75" customHeight="1"/>
-    <row r="276" ht="12.75" customHeight="1"/>
-    <row r="277" ht="12.75" customHeight="1"/>
-    <row r="278" ht="12.75" customHeight="1"/>
-    <row r="279" ht="12.75" customHeight="1"/>
-    <row r="280" ht="12.75" customHeight="1"/>
-    <row r="281" ht="12.75" customHeight="1"/>
-    <row r="282" ht="12.75" customHeight="1"/>
-    <row r="283" ht="12.75" customHeight="1"/>
-    <row r="284" ht="12.75" customHeight="1"/>
-    <row r="285" ht="12.75" customHeight="1"/>
-    <row r="286" ht="12.75" customHeight="1"/>
-    <row r="287" ht="12.75" customHeight="1"/>
-    <row r="288" ht="12.75" customHeight="1"/>
-    <row r="289" ht="12.75" customHeight="1"/>
-    <row r="290" ht="12.75" customHeight="1"/>
-    <row r="291" ht="12.75" customHeight="1"/>
-    <row r="292" ht="12.75" customHeight="1"/>
-    <row r="293" ht="12.75" customHeight="1"/>
-    <row r="294" ht="12.75" customHeight="1"/>
-    <row r="295" ht="12.75" customHeight="1"/>
-    <row r="296" ht="12.75" customHeight="1"/>
-    <row r="297" ht="12.75" customHeight="1"/>
-    <row r="298" ht="12.75" customHeight="1"/>
-    <row r="299" ht="12.75" customHeight="1"/>
-    <row r="300" ht="12.75" customHeight="1"/>
-    <row r="301" ht="12.75" customHeight="1"/>
-    <row r="302" ht="12.75" customHeight="1"/>
-    <row r="303" ht="12.75" customHeight="1"/>
-    <row r="304" ht="12.75" customHeight="1"/>
-    <row r="305" ht="12.75" customHeight="1"/>
-    <row r="306" ht="12.75" customHeight="1"/>
-    <row r="307" ht="12.75" customHeight="1"/>
-    <row r="308" ht="12.75" customHeight="1"/>
-    <row r="309" ht="12.75" customHeight="1"/>
-    <row r="310" ht="12.75" customHeight="1"/>
-    <row r="311" ht="12.75" customHeight="1"/>
-    <row r="312" ht="12.75" customHeight="1"/>
-    <row r="313" ht="12.75" customHeight="1"/>
-    <row r="314" ht="12.75" customHeight="1"/>
-    <row r="315" ht="12.75" customHeight="1"/>
-    <row r="316" ht="12.75" customHeight="1"/>
-    <row r="317" ht="12.75" customHeight="1"/>
-    <row r="318" ht="12.75" customHeight="1"/>
-    <row r="319" ht="12.75" customHeight="1"/>
-    <row r="320" ht="12.75" customHeight="1"/>
-    <row r="321" ht="12.75" customHeight="1"/>
-    <row r="322" ht="12.75" customHeight="1"/>
-    <row r="323" ht="12.75" customHeight="1"/>
-    <row r="324" ht="12.75" customHeight="1"/>
-    <row r="325" ht="12.75" customHeight="1"/>
-    <row r="326" ht="12.75" customHeight="1"/>
-    <row r="327" ht="12.75" customHeight="1"/>
-    <row r="328" ht="12.75" customHeight="1"/>
-    <row r="329" ht="12.75" customHeight="1"/>
-    <row r="330" ht="12.75" customHeight="1"/>
-    <row r="331" ht="12.75" customHeight="1"/>
-    <row r="332" ht="12.75" customHeight="1"/>
-    <row r="333" ht="12.75" customHeight="1"/>
-    <row r="334" ht="12.75" customHeight="1"/>
-    <row r="335" ht="12.75" customHeight="1"/>
-    <row r="336" ht="12.75" customHeight="1"/>
-    <row r="337" ht="12.75" customHeight="1"/>
-    <row r="338" ht="12.75" customHeight="1"/>
-    <row r="339" ht="12.75" customHeight="1"/>
-    <row r="340" ht="12.75" customHeight="1"/>
-    <row r="341" ht="12.75" customHeight="1"/>
-    <row r="342" ht="12.75" customHeight="1"/>
-    <row r="343" ht="12.75" customHeight="1"/>
-    <row r="344" ht="12.75" customHeight="1"/>
-    <row r="345" ht="12.75" customHeight="1"/>
-    <row r="346" ht="12.75" customHeight="1"/>
-    <row r="347" ht="12.75" customHeight="1"/>
-    <row r="348" ht="12.75" customHeight="1"/>
-    <row r="349" ht="12.75" customHeight="1"/>
-    <row r="350" ht="12.75" customHeight="1"/>
-    <row r="351" ht="12.75" customHeight="1"/>
-    <row r="352" ht="12.75" customHeight="1"/>
-    <row r="353" ht="12.75" customHeight="1"/>
-    <row r="354" ht="12.75" customHeight="1"/>
-    <row r="355" ht="12.75" customHeight="1"/>
-    <row r="356" ht="12.75" customHeight="1"/>
-    <row r="357" ht="12.75" customHeight="1"/>
-    <row r="358" ht="12.75" customHeight="1"/>
-    <row r="359" ht="12.75" customHeight="1"/>
-    <row r="360" ht="12.75" customHeight="1"/>
-    <row r="361" ht="12.75" customHeight="1"/>
-    <row r="362" ht="12.75" customHeight="1"/>
-    <row r="363" ht="12.75" customHeight="1"/>
-    <row r="364" ht="12.75" customHeight="1"/>
-    <row r="365" ht="12.75" customHeight="1"/>
-    <row r="366" ht="12.75" customHeight="1"/>
-    <row r="367" ht="12.75" customHeight="1"/>
-    <row r="368" ht="12.75" customHeight="1"/>
-    <row r="369" ht="12.75" customHeight="1"/>
-    <row r="370" ht="12.75" customHeight="1"/>
-    <row r="371" ht="12.75" customHeight="1"/>
-    <row r="372" ht="12.75" customHeight="1"/>
-    <row r="373" ht="12.75" customHeight="1"/>
-    <row r="374" ht="12.75" customHeight="1"/>
-    <row r="375" ht="12.75" customHeight="1"/>
-    <row r="376" ht="12.75" customHeight="1"/>
-    <row r="377" ht="12.75" customHeight="1"/>
-    <row r="378" ht="12.75" customHeight="1"/>
-    <row r="379" ht="12.75" customHeight="1"/>
-    <row r="380" ht="12.75" customHeight="1"/>
-    <row r="381" ht="12.75" customHeight="1"/>
-    <row r="382" ht="12.75" customHeight="1"/>
-    <row r="383" ht="12.75" customHeight="1"/>
-    <row r="384" ht="12.75" customHeight="1"/>
-    <row r="385" ht="12.75" customHeight="1"/>
-    <row r="386" ht="12.75" customHeight="1"/>
-    <row r="387" ht="12.75" customHeight="1"/>
-    <row r="388" ht="12.75" customHeight="1"/>
-    <row r="389" ht="12.75" customHeight="1"/>
-    <row r="390" ht="12.75" customHeight="1"/>
-    <row r="391" ht="12.75" customHeight="1"/>
-    <row r="392" ht="12.75" customHeight="1"/>
-    <row r="393" ht="12.75" customHeight="1"/>
-    <row r="394" ht="12.75" customHeight="1"/>
-    <row r="395" ht="12.75" customHeight="1"/>
-    <row r="396" ht="12.75" customHeight="1"/>
-    <row r="397" ht="12.75" customHeight="1"/>
-    <row r="398" ht="12.75" customHeight="1"/>
-    <row r="399" ht="12.75" customHeight="1"/>
-    <row r="400" ht="12.75" customHeight="1"/>
-    <row r="401" ht="12.75" customHeight="1"/>
-    <row r="402" ht="12.75" customHeight="1"/>
-    <row r="403" ht="12.75" customHeight="1"/>
-    <row r="404" ht="12.75" customHeight="1"/>
-    <row r="405" ht="12.75" customHeight="1"/>
-    <row r="406" ht="12.75" customHeight="1"/>
-    <row r="407" ht="12.75" customHeight="1"/>
-    <row r="408" ht="12.75" customHeight="1"/>
-    <row r="409" ht="12.75" customHeight="1"/>
-    <row r="410" ht="12.75" customHeight="1"/>
-    <row r="411" ht="12.75" customHeight="1"/>
-    <row r="412" ht="12.75" customHeight="1"/>
-    <row r="413" ht="12.75" customHeight="1"/>
-    <row r="414" ht="12.75" customHeight="1"/>
-    <row r="415" ht="12.75" customHeight="1"/>
-    <row r="416" ht="12.75" customHeight="1"/>
-    <row r="417" ht="12.75" customHeight="1"/>
-    <row r="418" ht="12.75" customHeight="1"/>
-    <row r="419" ht="12.75" customHeight="1"/>
-    <row r="420" ht="12.75" customHeight="1"/>
-    <row r="421" ht="12.75" customHeight="1"/>
-    <row r="422" ht="12.75" customHeight="1"/>
-    <row r="423" ht="12.75" customHeight="1"/>
-    <row r="424" ht="12.75" customHeight="1"/>
-    <row r="425" ht="12.75" customHeight="1"/>
-    <row r="426" ht="12.75" customHeight="1"/>
-    <row r="427" ht="12.75" customHeight="1"/>
-    <row r="428" ht="12.75" customHeight="1"/>
-    <row r="429" ht="12.75" customHeight="1"/>
-    <row r="430" ht="12.75" customHeight="1"/>
-    <row r="431" ht="12.75" customHeight="1"/>
-    <row r="432" ht="12.75" customHeight="1"/>
-    <row r="433" ht="12.75" customHeight="1"/>
-    <row r="434" ht="12.75" customHeight="1"/>
-    <row r="435" ht="12.75" customHeight="1"/>
-    <row r="436" ht="12.75" customHeight="1"/>
-    <row r="437" ht="12.75" customHeight="1"/>
-    <row r="438" ht="12.75" customHeight="1"/>
-    <row r="439" ht="12.75" customHeight="1"/>
-    <row r="440" ht="12.75" customHeight="1"/>
-    <row r="441" ht="12.75" customHeight="1"/>
-    <row r="442" ht="12.75" customHeight="1"/>
-    <row r="443" ht="12.75" customHeight="1"/>
-    <row r="444" ht="12.75" customHeight="1"/>
-    <row r="445" ht="12.75" customHeight="1"/>
-    <row r="446" ht="12.75" customHeight="1"/>
-    <row r="447" ht="12.75" customHeight="1"/>
-    <row r="448" ht="12.75" customHeight="1"/>
-    <row r="449" ht="12.75" customHeight="1"/>
-    <row r="450" ht="12.75" customHeight="1"/>
-    <row r="451" ht="12.75" customHeight="1"/>
-    <row r="452" ht="12.75" customHeight="1"/>
-    <row r="453" ht="12.75" customHeight="1"/>
-    <row r="454" ht="12.75" customHeight="1"/>
-    <row r="455" ht="12.75" customHeight="1"/>
-    <row r="456" ht="12.75" customHeight="1"/>
-    <row r="457" ht="12.75" customHeight="1"/>
-    <row r="458" ht="12.75" customHeight="1"/>
-    <row r="459" ht="12.75" customHeight="1"/>
-    <row r="460" ht="12.75" customHeight="1"/>
-    <row r="461" ht="12.75" customHeight="1"/>
-    <row r="462" ht="12.75" customHeight="1"/>
-    <row r="463" ht="12.75" customHeight="1"/>
-    <row r="464" ht="12.75" customHeight="1"/>
-    <row r="465" ht="12.75" customHeight="1"/>
-    <row r="466" ht="12.75" customHeight="1"/>
-    <row r="467" ht="12.75" customHeight="1"/>
-    <row r="468" ht="12.75" customHeight="1"/>
-    <row r="469" ht="12.75" customHeight="1"/>
-    <row r="470" ht="12.75" customHeight="1"/>
-    <row r="471" ht="12.75" customHeight="1"/>
-    <row r="472" ht="12.75" customHeight="1"/>
-    <row r="473" ht="12.75" customHeight="1"/>
-    <row r="474" ht="12.75" customHeight="1"/>
-    <row r="475" ht="12.75" customHeight="1"/>
-    <row r="476" ht="12.75" customHeight="1"/>
-    <row r="477" ht="12.75" customHeight="1"/>
-    <row r="478" ht="12.75" customHeight="1"/>
-    <row r="479" ht="12.75" customHeight="1"/>
-    <row r="480" ht="12.75" customHeight="1"/>
-    <row r="481" ht="12.75" customHeight="1"/>
-    <row r="482" ht="12.75" customHeight="1"/>
-    <row r="483" ht="12.75" customHeight="1"/>
-    <row r="484" ht="12.75" customHeight="1"/>
-    <row r="485" ht="12.75" customHeight="1"/>
-    <row r="486" ht="12.75" customHeight="1"/>
-    <row r="487" ht="12.75" customHeight="1"/>
-    <row r="488" ht="12.75" customHeight="1"/>
-    <row r="489" ht="12.75" customHeight="1"/>
-    <row r="490" ht="12.75" customHeight="1"/>
-    <row r="491" ht="12.75" customHeight="1"/>
-    <row r="492" ht="12.75" customHeight="1"/>
-    <row r="493" ht="12.75" customHeight="1"/>
-    <row r="494" ht="12.75" customHeight="1"/>
-    <row r="495" ht="12.75" customHeight="1"/>
-    <row r="496" ht="12.75" customHeight="1"/>
-    <row r="497" ht="12.75" customHeight="1"/>
-    <row r="498" ht="12.75" customHeight="1"/>
-    <row r="499" ht="12.75" customHeight="1"/>
-    <row r="500" ht="12.75" customHeight="1"/>
-    <row r="501" ht="12.75" customHeight="1"/>
-    <row r="502" ht="12.75" customHeight="1"/>
-    <row r="503" ht="12.75" customHeight="1"/>
-    <row r="504" ht="12.75" customHeight="1"/>
-    <row r="505" ht="12.75" customHeight="1"/>
-    <row r="506" ht="12.75" customHeight="1"/>
-    <row r="507" ht="12.75" customHeight="1"/>
-    <row r="508" ht="12.75" customHeight="1"/>
-    <row r="509" ht="12.75" customHeight="1"/>
-    <row r="510" ht="12.75" customHeight="1"/>
-    <row r="511" ht="12.75" customHeight="1"/>
-    <row r="512" ht="12.75" customHeight="1"/>
-    <row r="513" ht="12.75" customHeight="1"/>
-    <row r="514" ht="12.75" customHeight="1"/>
-    <row r="515" ht="12.75" customHeight="1"/>
-    <row r="516" ht="12.75" customHeight="1"/>
-    <row r="517" ht="12.75" customHeight="1"/>
-    <row r="518" ht="12.75" customHeight="1"/>
-    <row r="519" ht="12.75" customHeight="1"/>
-    <row r="520" ht="12.75" customHeight="1"/>
-    <row r="521" ht="12.75" customHeight="1"/>
-    <row r="522" ht="12.75" customHeight="1"/>
-    <row r="523" ht="12.75" customHeight="1"/>
-    <row r="524" ht="12.75" customHeight="1"/>
-    <row r="525" ht="12.75" customHeight="1"/>
-    <row r="526" ht="12.75" customHeight="1"/>
-    <row r="527" ht="12.75" customHeight="1"/>
-    <row r="528" ht="12.75" customHeight="1"/>
-    <row r="529" ht="12.75" customHeight="1"/>
-    <row r="530" ht="12.75" customHeight="1"/>
-    <row r="531" ht="12.75" customHeight="1"/>
-    <row r="532" ht="12.75" customHeight="1"/>
-    <row r="533" ht="12.75" customHeight="1"/>
-    <row r="534" ht="12.75" customHeight="1"/>
-    <row r="535" ht="12.75" customHeight="1"/>
-    <row r="536" ht="12.75" customHeight="1"/>
-    <row r="537" ht="12.75" customHeight="1"/>
-    <row r="538" ht="12.75" customHeight="1"/>
-    <row r="539" ht="12.75" customHeight="1"/>
-    <row r="540" ht="12.75" customHeight="1"/>
-    <row r="541" ht="12.75" customHeight="1"/>
-    <row r="542" ht="12.75" customHeight="1"/>
-    <row r="543" ht="12.75" customHeight="1"/>
-    <row r="544" ht="12.75" customHeight="1"/>
-    <row r="545" ht="12.75" customHeight="1"/>
-    <row r="546" ht="12.75" customHeight="1"/>
-    <row r="547" ht="12.75" customHeight="1"/>
-    <row r="548" ht="12.75" customHeight="1"/>
-    <row r="549" ht="12.75" customHeight="1"/>
-    <row r="550" ht="12.75" customHeight="1"/>
-    <row r="551" ht="12.75" customHeight="1"/>
-    <row r="552" ht="12.75" customHeight="1"/>
-    <row r="553" ht="12.75" customHeight="1"/>
-    <row r="554" ht="12.75" customHeight="1"/>
-    <row r="555" ht="12.75" customHeight="1"/>
-    <row r="556" ht="12.75" customHeight="1"/>
-    <row r="557" ht="12.75" customHeight="1"/>
-    <row r="558" ht="12.75" customHeight="1"/>
-    <row r="559" ht="12.75" customHeight="1"/>
-    <row r="560" ht="12.75" customHeight="1"/>
-    <row r="561" ht="12.75" customHeight="1"/>
-    <row r="562" ht="12.75" customHeight="1"/>
-    <row r="563" ht="12.75" customHeight="1"/>
-    <row r="564" ht="12.75" customHeight="1"/>
-    <row r="565" ht="12.75" customHeight="1"/>
-    <row r="566" ht="12.75" customHeight="1"/>
-    <row r="567" ht="12.75" customHeight="1"/>
-    <row r="568" ht="12.75" customHeight="1"/>
-    <row r="569" ht="12.75" customHeight="1"/>
-    <row r="570" ht="12.75" customHeight="1"/>
-    <row r="571" ht="12.75" customHeight="1"/>
-    <row r="572" ht="12.75" customHeight="1"/>
-    <row r="573" ht="12.75" customHeight="1"/>
-    <row r="574" ht="12.75" customHeight="1"/>
-    <row r="575" ht="12.75" customHeight="1"/>
-    <row r="576" ht="12.75" customHeight="1"/>
-    <row r="577" ht="12.75" customHeight="1"/>
-    <row r="578" ht="12.75" customHeight="1"/>
-    <row r="579" ht="12.75" customHeight="1"/>
-    <row r="580" ht="12.75" customHeight="1"/>
-    <row r="581" ht="12.75" customHeight="1"/>
-    <row r="582" ht="12.75" customHeight="1"/>
-    <row r="583" ht="12.75" customHeight="1"/>
-    <row r="584" ht="12.75" customHeight="1"/>
-    <row r="585" ht="12.75" customHeight="1"/>
-    <row r="586" ht="12.75" customHeight="1"/>
-    <row r="587" ht="12.75" customHeight="1"/>
-    <row r="588" ht="12.75" customHeight="1"/>
-    <row r="589" ht="12.75" customHeight="1"/>
-    <row r="590" ht="12.75" customHeight="1"/>
-    <row r="591" ht="12.75" customHeight="1"/>
-    <row r="592" ht="12.75" customHeight="1"/>
-    <row r="593" ht="12.75" customHeight="1"/>
-    <row r="594" ht="12.75" customHeight="1"/>
-    <row r="595" ht="12.75" customHeight="1"/>
-    <row r="596" ht="12.75" customHeight="1"/>
-    <row r="597" ht="12.75" customHeight="1"/>
-    <row r="598" ht="12.75" customHeight="1"/>
-    <row r="599" ht="12.75" customHeight="1"/>
-    <row r="600" ht="12.75" customHeight="1"/>
-    <row r="601" ht="12.75" customHeight="1"/>
-    <row r="602" ht="12.75" customHeight="1"/>
-    <row r="603" ht="12.75" customHeight="1"/>
-    <row r="604" ht="12.75" customHeight="1"/>
-    <row r="605" ht="12.75" customHeight="1"/>
-    <row r="606" ht="12.75" customHeight="1"/>
-    <row r="607" ht="12.75" customHeight="1"/>
-    <row r="608" ht="12.75" customHeight="1"/>
-    <row r="609" ht="12.75" customHeight="1"/>
-    <row r="610" ht="12.75" customHeight="1"/>
-    <row r="611" ht="12.75" customHeight="1"/>
-    <row r="612" ht="12.75" customHeight="1"/>
-    <row r="613" ht="12.75" customHeight="1"/>
-    <row r="614" ht="12.75" customHeight="1"/>
-    <row r="615" ht="12.75" customHeight="1"/>
-    <row r="616" ht="12.75" customHeight="1"/>
-    <row r="617" ht="12.75" customHeight="1"/>
-    <row r="618" ht="12.75" customHeight="1"/>
-    <row r="619" ht="12.75" customHeight="1"/>
-    <row r="620" ht="12.75" customHeight="1"/>
-    <row r="621" ht="12.75" customHeight="1"/>
-    <row r="622" ht="12.75" customHeight="1"/>
-    <row r="623" ht="12.75" customHeight="1"/>
-    <row r="624" ht="12.75" customHeight="1"/>
-    <row r="625" ht="12.75" customHeight="1"/>
-    <row r="626" ht="12.75" customHeight="1"/>
-    <row r="627" ht="12.75" customHeight="1"/>
-    <row r="628" ht="12.75" customHeight="1"/>
-    <row r="629" ht="12.75" customHeight="1"/>
-    <row r="630" ht="12.75" customHeight="1"/>
-    <row r="631" ht="12.75" customHeight="1"/>
-    <row r="632" ht="12.75" customHeight="1"/>
-    <row r="633" ht="12.75" customHeight="1"/>
-    <row r="634" ht="12.75" customHeight="1"/>
-    <row r="635" ht="12.75" customHeight="1"/>
-    <row r="636" ht="12.75" customHeight="1"/>
-    <row r="637" ht="12.75" customHeight="1"/>
-    <row r="638" ht="12.75" customHeight="1"/>
-    <row r="639" ht="12.75" customHeight="1"/>
-    <row r="640" ht="12.75" customHeight="1"/>
-    <row r="641" ht="12.75" customHeight="1"/>
-    <row r="642" ht="12.75" customHeight="1"/>
-    <row r="643" ht="12.75" customHeight="1"/>
-    <row r="644" ht="12.75" customHeight="1"/>
-    <row r="645" ht="12.75" customHeight="1"/>
-    <row r="646" ht="12.75" customHeight="1"/>
-    <row r="647" ht="12.75" customHeight="1"/>
-    <row r="648" ht="12.75" customHeight="1"/>
-    <row r="649" ht="12.75" customHeight="1"/>
-    <row r="650" ht="12.75" customHeight="1"/>
-    <row r="651" ht="12.75" customHeight="1"/>
-    <row r="652" ht="12.75" customHeight="1"/>
-    <row r="653" ht="12.75" customHeight="1"/>
-    <row r="654" ht="12.75" customHeight="1"/>
-    <row r="655" ht="12.75" customHeight="1"/>
-    <row r="656" ht="12.75" customHeight="1"/>
-    <row r="657" ht="12.75" customHeight="1"/>
-    <row r="658" ht="12.75" customHeight="1"/>
-    <row r="659" ht="12.75" customHeight="1"/>
-    <row r="660" ht="12.75" customHeight="1"/>
-    <row r="661" ht="12.75" customHeight="1"/>
-    <row r="662" ht="12.75" customHeight="1"/>
-    <row r="663" ht="12.75" customHeight="1"/>
-    <row r="664" ht="12.75" customHeight="1"/>
-    <row r="665" ht="12.75" customHeight="1"/>
-    <row r="666" ht="12.75" customHeight="1"/>
-    <row r="667" ht="12.75" customHeight="1"/>
-    <row r="668" ht="12.75" customHeight="1"/>
-    <row r="669" ht="12.75" customHeight="1"/>
-    <row r="670" ht="12.75" customHeight="1"/>
-    <row r="671" ht="12.75" customHeight="1"/>
-    <row r="672" ht="12.75" customHeight="1"/>
-    <row r="673" ht="12.75" customHeight="1"/>
-    <row r="674" ht="12.75" customHeight="1"/>
-    <row r="675" ht="12.75" customHeight="1"/>
-    <row r="676" ht="12.75" customHeight="1"/>
-    <row r="677" ht="12.75" customHeight="1"/>
-    <row r="678" ht="12.75" customHeight="1"/>
-    <row r="679" ht="12.75" customHeight="1"/>
-    <row r="680" ht="12.75" customHeight="1"/>
-    <row r="681" ht="12.75" customHeight="1"/>
-    <row r="682" ht="12.75" customHeight="1"/>
-    <row r="683" ht="12.75" customHeight="1"/>
-    <row r="684" ht="12.75" customHeight="1"/>
-    <row r="685" ht="12.75" customHeight="1"/>
-    <row r="686" ht="12.75" customHeight="1"/>
-    <row r="687" ht="12.75" customHeight="1"/>
-    <row r="688" ht="12.75" customHeight="1"/>
-    <row r="689" ht="12.75" customHeight="1"/>
-    <row r="690" ht="12.75" customHeight="1"/>
-    <row r="691" ht="12.75" customHeight="1"/>
-    <row r="692" ht="12.75" customHeight="1"/>
-    <row r="693" ht="12.75" customHeight="1"/>
-    <row r="694" ht="12.75" customHeight="1"/>
-    <row r="695" ht="12.75" customHeight="1"/>
-    <row r="696" ht="12.75" customHeight="1"/>
-    <row r="697" ht="12.75" customHeight="1"/>
-    <row r="698" ht="12.75" customHeight="1"/>
-    <row r="699" ht="12.75" customHeight="1"/>
-    <row r="700" ht="12.75" customHeight="1"/>
-    <row r="701" ht="12.75" customHeight="1"/>
-    <row r="702" ht="12.75" customHeight="1"/>
-    <row r="703" ht="12.75" customHeight="1"/>
-    <row r="704" ht="12.75" customHeight="1"/>
-    <row r="705" ht="12.75" customHeight="1"/>
-    <row r="706" ht="12.75" customHeight="1"/>
-    <row r="707" ht="12.75" customHeight="1"/>
-    <row r="708" ht="12.75" customHeight="1"/>
-    <row r="709" ht="12.75" customHeight="1"/>
-    <row r="710" ht="12.75" customHeight="1"/>
-    <row r="711" ht="12.75" customHeight="1"/>
-    <row r="712" ht="12.75" customHeight="1"/>
-    <row r="713" ht="12.75" customHeight="1"/>
-    <row r="714" ht="12.75" customHeight="1"/>
-    <row r="715" ht="12.75" customHeight="1"/>
-    <row r="716" ht="12.75" customHeight="1"/>
-    <row r="717" ht="12.75" customHeight="1"/>
-    <row r="718" ht="12.75" customHeight="1"/>
-    <row r="719" ht="12.75" customHeight="1"/>
-    <row r="720" ht="12.75" customHeight="1"/>
-    <row r="721" ht="12.75" customHeight="1"/>
-    <row r="722" ht="12.75" customHeight="1"/>
-    <row r="723" ht="12.75" customHeight="1"/>
-    <row r="724" ht="12.75" customHeight="1"/>
-    <row r="725" ht="12.75" customHeight="1"/>
-    <row r="726" ht="12.75" customHeight="1"/>
-    <row r="727" ht="12.75" customHeight="1"/>
-    <row r="728" ht="12.75" customHeight="1"/>
-    <row r="729" ht="12.75" customHeight="1"/>
-    <row r="730" ht="12.75" customHeight="1"/>
-    <row r="731" ht="12.75" customHeight="1"/>
-    <row r="732" ht="12.75" customHeight="1"/>
-    <row r="733" ht="12.75" customHeight="1"/>
-    <row r="734" ht="12.75" customHeight="1"/>
-    <row r="735" ht="12.75" customHeight="1"/>
-    <row r="736" ht="12.75" customHeight="1"/>
-    <row r="737" ht="12.75" customHeight="1"/>
-    <row r="738" ht="12.75" customHeight="1"/>
-    <row r="739" ht="12.75" customHeight="1"/>
-    <row r="740" ht="12.75" customHeight="1"/>
-    <row r="741" ht="12.75" customHeight="1"/>
-    <row r="742" ht="12.75" customHeight="1"/>
-    <row r="743" ht="12.75" customHeight="1"/>
-    <row r="744" ht="12.75" customHeight="1"/>
-    <row r="745" ht="12.75" customHeight="1"/>
-    <row r="746" ht="12.75" customHeight="1"/>
-    <row r="747" ht="12.75" customHeight="1"/>
-    <row r="748" ht="12.75" customHeight="1"/>
-    <row r="749" ht="12.75" customHeight="1"/>
-    <row r="750" ht="12.75" customHeight="1"/>
-    <row r="751" ht="12.75" customHeight="1"/>
-    <row r="752" ht="12.75" customHeight="1"/>
-    <row r="753" ht="12.75" customHeight="1"/>
-    <row r="754" ht="12.75" customHeight="1"/>
-    <row r="755" ht="12.75" customHeight="1"/>
-    <row r="756" ht="12.75" customHeight="1"/>
-    <row r="757" ht="12.75" customHeight="1"/>
-    <row r="758" ht="12.75" customHeight="1"/>
-    <row r="759" ht="12.75" customHeight="1"/>
-    <row r="760" ht="12.75" customHeight="1"/>
-    <row r="761" ht="12.75" customHeight="1"/>
-    <row r="762" ht="12.75" customHeight="1"/>
-    <row r="763" ht="12.75" customHeight="1"/>
-    <row r="764" ht="12.75" customHeight="1"/>
-    <row r="765" ht="12.75" customHeight="1"/>
-    <row r="766" ht="12.75" customHeight="1"/>
-    <row r="767" ht="12.75" customHeight="1"/>
-    <row r="768" ht="12.75" customHeight="1"/>
-    <row r="769" ht="12.75" customHeight="1"/>
-    <row r="770" ht="12.75" customHeight="1"/>
-    <row r="771" ht="12.75" customHeight="1"/>
-    <row r="772" ht="12.75" customHeight="1"/>
-    <row r="773" ht="12.75" customHeight="1"/>
-    <row r="774" ht="12.75" customHeight="1"/>
-    <row r="775" ht="12.75" customHeight="1"/>
-    <row r="776" ht="12.75" customHeight="1"/>
-    <row r="777" ht="12.75" customHeight="1"/>
-    <row r="778" ht="12.75" customHeight="1"/>
-    <row r="779" ht="12.75" customHeight="1"/>
-    <row r="780" ht="12.75" customHeight="1"/>
-    <row r="781" ht="12.75" customHeight="1"/>
-    <row r="782" ht="12.75" customHeight="1"/>
-    <row r="783" ht="12.75" customHeight="1"/>
-    <row r="784" ht="12.75" customHeight="1"/>
-    <row r="785" ht="12.75" customHeight="1"/>
-    <row r="786" ht="12.75" customHeight="1"/>
-    <row r="787" ht="12.75" customHeight="1"/>
-    <row r="788" ht="12.75" customHeight="1"/>
-    <row r="789" ht="12.75" customHeight="1"/>
-    <row r="790" ht="12.75" customHeight="1"/>
-    <row r="791" ht="12.75" customHeight="1"/>
-    <row r="792" ht="12.75" customHeight="1"/>
-    <row r="793" ht="12.75" customHeight="1"/>
-    <row r="794" ht="12.75" customHeight="1"/>
-    <row r="795" ht="12.75" customHeight="1"/>
-    <row r="796" ht="12.75" customHeight="1"/>
-    <row r="797" ht="12.75" customHeight="1"/>
-    <row r="798" ht="12.75" customHeight="1"/>
-    <row r="799" ht="12.75" customHeight="1"/>
-    <row r="800" ht="12.75" customHeight="1"/>
-    <row r="801" ht="12.75" customHeight="1"/>
-    <row r="802" ht="12.75" customHeight="1"/>
-    <row r="803" ht="12.75" customHeight="1"/>
-    <row r="804" ht="12.75" customHeight="1"/>
-    <row r="805" ht="12.75" customHeight="1"/>
-    <row r="806" ht="12.75" customHeight="1"/>
-    <row r="807" ht="12.75" customHeight="1"/>
-    <row r="808" ht="12.75" customHeight="1"/>
-    <row r="809" ht="12.75" customHeight="1"/>
-    <row r="810" ht="12.75" customHeight="1"/>
-    <row r="811" ht="12.75" customHeight="1"/>
-    <row r="812" ht="12.75" customHeight="1"/>
-    <row r="813" ht="12.75" customHeight="1"/>
-    <row r="814" ht="12.75" customHeight="1"/>
-    <row r="815" ht="12.75" customHeight="1"/>
-    <row r="816" ht="12.75" customHeight="1"/>
-    <row r="817" ht="12.75" customHeight="1"/>
-    <row r="818" ht="12.75" customHeight="1"/>
-    <row r="819" ht="12.75" customHeight="1"/>
-    <row r="820" ht="12.75" customHeight="1"/>
-    <row r="821" ht="12.75" customHeight="1"/>
-    <row r="822" ht="12.75" customHeight="1"/>
-    <row r="823" ht="12.75" customHeight="1"/>
-    <row r="824" ht="12.75" customHeight="1"/>
-    <row r="825" ht="12.75" customHeight="1"/>
-    <row r="826" ht="12.75" customHeight="1"/>
-    <row r="827" ht="12.75" customHeight="1"/>
-    <row r="828" ht="12.75" customHeight="1"/>
-    <row r="829" ht="12.75" customHeight="1"/>
-    <row r="830" ht="12.75" customHeight="1"/>
-    <row r="831" ht="12.75" customHeight="1"/>
-    <row r="832" ht="12.75" customHeight="1"/>
-    <row r="833" ht="12.75" customHeight="1"/>
-    <row r="834" ht="12.75" customHeight="1"/>
-    <row r="835" ht="12.75" customHeight="1"/>
-    <row r="836" ht="12.75" customHeight="1"/>
-    <row r="837" ht="12.75" customHeight="1"/>
-    <row r="838" ht="12.75" customHeight="1"/>
-    <row r="839" ht="12.75" customHeight="1"/>
-    <row r="840" ht="12.75" customHeight="1"/>
-    <row r="841" ht="12.75" customHeight="1"/>
-    <row r="842" ht="12.75" customHeight="1"/>
-    <row r="843" ht="12.75" customHeight="1"/>
-    <row r="844" ht="12.75" customHeight="1"/>
-    <row r="845" ht="12.75" customHeight="1"/>
-    <row r="846" ht="12.75" customHeight="1"/>
-    <row r="847" ht="12.75" customHeight="1"/>
-    <row r="848" ht="12.75" customHeight="1"/>
-    <row r="849" ht="12.75" customHeight="1"/>
-    <row r="850" ht="12.75" customHeight="1"/>
-    <row r="851" ht="12.75" customHeight="1"/>
-    <row r="852" ht="12.75" customHeight="1"/>
-    <row r="853" ht="12.75" customHeight="1"/>
-    <row r="854" ht="12.75" customHeight="1"/>
-    <row r="855" ht="12.75" customHeight="1"/>
-    <row r="856" ht="12.75" customHeight="1"/>
-    <row r="857" ht="12.75" customHeight="1"/>
-    <row r="858" ht="12.75" customHeight="1"/>
-    <row r="859" ht="12.75" customHeight="1"/>
-    <row r="860" ht="12.75" customHeight="1"/>
-    <row r="861" ht="12.75" customHeight="1"/>
-    <row r="862" ht="12.75" customHeight="1"/>
-    <row r="863" ht="12.75" customHeight="1"/>
-    <row r="864" ht="12.75" customHeight="1"/>
-    <row r="865" ht="12.75" customHeight="1"/>
-    <row r="866" ht="12.75" customHeight="1"/>
-    <row r="867" ht="12.75" customHeight="1"/>
-    <row r="868" ht="12.75" customHeight="1"/>
-    <row r="869" ht="12.75" customHeight="1"/>
-    <row r="870" ht="12.75" customHeight="1"/>
-    <row r="871" ht="12.75" customHeight="1"/>
-    <row r="872" ht="12.75" customHeight="1"/>
-    <row r="873" ht="12.75" customHeight="1"/>
-    <row r="874" ht="12.75" customHeight="1"/>
-    <row r="875" ht="12.75" customHeight="1"/>
-    <row r="876" ht="12.75" customHeight="1"/>
-    <row r="877" ht="12.75" customHeight="1"/>
-    <row r="878" ht="12.75" customHeight="1"/>
-    <row r="879" ht="12.75" customHeight="1"/>
-    <row r="880" ht="12.75" customHeight="1"/>
-    <row r="881" ht="12.75" customHeight="1"/>
-    <row r="882" ht="12.75" customHeight="1"/>
-    <row r="883" ht="12.75" customHeight="1"/>
-    <row r="884" ht="12.75" customHeight="1"/>
-    <row r="885" ht="12.75" customHeight="1"/>
-    <row r="886" ht="12.75" customHeight="1"/>
-    <row r="887" ht="12.75" customHeight="1"/>
-    <row r="888" ht="12.75" customHeight="1"/>
-    <row r="889" ht="12.75" customHeight="1"/>
-    <row r="890" ht="12.75" customHeight="1"/>
-    <row r="891" ht="12.75" customHeight="1"/>
-    <row r="892" ht="12.75" customHeight="1"/>
-    <row r="893" ht="12.75" customHeight="1"/>
-    <row r="894" ht="12.75" customHeight="1"/>
-    <row r="895" ht="12.75" customHeight="1"/>
-    <row r="896" ht="12.75" customHeight="1"/>
-    <row r="897" ht="12.75" customHeight="1"/>
-    <row r="898" ht="12.75" customHeight="1"/>
-    <row r="899" ht="12.75" customHeight="1"/>
-    <row r="900" ht="12.75" customHeight="1"/>
-    <row r="901" ht="12.75" customHeight="1"/>
-    <row r="902" ht="12.75" customHeight="1"/>
-    <row r="903" ht="12.75" customHeight="1"/>
-    <row r="904" ht="12.75" customHeight="1"/>
-    <row r="905" ht="12.75" customHeight="1"/>
-    <row r="906" ht="12.75" customHeight="1"/>
-    <row r="907" ht="12.75" customHeight="1"/>
-    <row r="908" ht="12.75" customHeight="1"/>
-    <row r="909" ht="12.75" customHeight="1"/>
-    <row r="910" ht="12.75" customHeight="1"/>
-    <row r="911" ht="12.75" customHeight="1"/>
-    <row r="912" ht="12.75" customHeight="1"/>
-    <row r="913" ht="12.75" customHeight="1"/>
-    <row r="914" ht="12.75" customHeight="1"/>
-    <row r="915" ht="12.75" customHeight="1"/>
-    <row r="916" ht="12.75" customHeight="1"/>
-    <row r="917" ht="12.75" customHeight="1"/>
-    <row r="918" ht="12.75" customHeight="1"/>
-    <row r="919" ht="12.75" customHeight="1"/>
-    <row r="920" ht="12.75" customHeight="1"/>
-    <row r="921" ht="12.75" customHeight="1"/>
-    <row r="922" ht="12.75" customHeight="1"/>
-    <row r="923" ht="12.75" customHeight="1"/>
-    <row r="924" ht="12.75" customHeight="1"/>
-    <row r="925" ht="12.75" customHeight="1"/>
-    <row r="926" ht="12.75" customHeight="1"/>
-    <row r="927" ht="12.75" customHeight="1"/>
-    <row r="928" ht="12.75" customHeight="1"/>
-    <row r="929" ht="12.75" customHeight="1"/>
-    <row r="930" ht="12.75" customHeight="1"/>
-    <row r="931" ht="12.75" customHeight="1"/>
-    <row r="932" ht="12.75" customHeight="1"/>
-    <row r="933" ht="12.75" customHeight="1"/>
-    <row r="934" ht="12.75" customHeight="1"/>
-    <row r="935" ht="12.75" customHeight="1"/>
-    <row r="936" ht="12.75" customHeight="1"/>
-    <row r="937" ht="12.75" customHeight="1"/>
-    <row r="938" ht="12.75" customHeight="1"/>
-    <row r="939" ht="12.75" customHeight="1"/>
-    <row r="940" ht="12.75" customHeight="1"/>
-    <row r="941" ht="12.75" customHeight="1"/>
-    <row r="942" ht="12.75" customHeight="1"/>
-    <row r="943" ht="12.75" customHeight="1"/>
-    <row r="944" ht="12.75" customHeight="1"/>
-    <row r="945" ht="12.75" customHeight="1"/>
-    <row r="946" ht="12.75" customHeight="1"/>
-    <row r="947" ht="12.75" customHeight="1"/>
-    <row r="948" ht="12.75" customHeight="1"/>
-    <row r="949" ht="12.75" customHeight="1"/>
-    <row r="950" ht="12.75" customHeight="1"/>
-    <row r="951" ht="12.75" customHeight="1"/>
-    <row r="952" ht="12.75" customHeight="1"/>
-    <row r="953" ht="12.75" customHeight="1"/>
-    <row r="954" ht="12.75" customHeight="1"/>
-    <row r="955" ht="12.75" customHeight="1"/>
-    <row r="956" ht="12.75" customHeight="1"/>
-    <row r="957" ht="12.75" customHeight="1"/>
-    <row r="958" ht="12.75" customHeight="1"/>
-    <row r="959" ht="12.75" customHeight="1"/>
-    <row r="960" ht="12.75" customHeight="1"/>
-    <row r="961" ht="12.75" customHeight="1"/>
-    <row r="962" ht="12.75" customHeight="1"/>
-    <row r="963" ht="12.75" customHeight="1"/>
-    <row r="964" ht="12.75" customHeight="1"/>
-    <row r="965" ht="12.75" customHeight="1"/>
-    <row r="966" ht="12.75" customHeight="1"/>
-    <row r="967" ht="12.75" customHeight="1"/>
-    <row r="968" ht="12.75" customHeight="1"/>
-    <row r="969" ht="12.75" customHeight="1"/>
-    <row r="970" ht="12.75" customHeight="1"/>
-    <row r="971" ht="12.75" customHeight="1"/>
-    <row r="972" ht="12.75" customHeight="1"/>
-    <row r="973" ht="12.75" customHeight="1"/>
-    <row r="974" ht="12.75" customHeight="1"/>
-    <row r="975" ht="12.75" customHeight="1"/>
-    <row r="976" ht="12.75" customHeight="1"/>
-    <row r="977" ht="12.75" customHeight="1"/>
-    <row r="978" ht="12.75" customHeight="1"/>
-    <row r="979" ht="12.75" customHeight="1"/>
-    <row r="980" ht="12.75" customHeight="1"/>
-    <row r="981" ht="12.75" customHeight="1"/>
-    <row r="982" ht="12.75" customHeight="1"/>
-    <row r="983" ht="12.75" customHeight="1"/>
-    <row r="984" ht="12.75" customHeight="1"/>
-    <row r="985" ht="12.75" customHeight="1"/>
-    <row r="986" ht="12.75" customHeight="1"/>
-    <row r="987" ht="12.75" customHeight="1"/>
-    <row r="988" ht="12.75" customHeight="1"/>
-    <row r="989" ht="12.75" customHeight="1"/>
-    <row r="990" ht="12.75" customHeight="1"/>
-    <row r="991" ht="12.75" customHeight="1"/>
-    <row r="992" ht="12.75" customHeight="1"/>
-    <row r="993" ht="12.75" customHeight="1"/>
-    <row r="994" ht="12.75" customHeight="1"/>
-    <row r="995" ht="12.75" customHeight="1"/>
-    <row r="996" ht="12.75" customHeight="1"/>
-    <row r="997" ht="12.75" customHeight="1"/>
-    <row r="998" ht="12.75" customHeight="1"/>
-    <row r="999" ht="12.75" customHeight="1"/>
-    <row r="1000" ht="12.75" customHeight="1"/>
+        <v>0.77900000000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="960" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="961" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="962" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="963" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="964" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="965" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="966" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="967" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="968" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="969" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="970" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="971" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="972" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="973" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="974" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="975" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="976" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="977" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="978" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="979" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="980" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="981" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="982" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="983" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="984" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="985" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="986" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="987" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="988" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="989" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="990" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="991" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="992" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="993" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="994" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="995" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="996" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="997" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="998" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="999" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.05277777777778" footer="0.0" header="0.0" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data and code/effect_sizes_and_moderators.xlsx
+++ b/data and code/effect_sizes_and_moderators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qizhouduan/Documents/GitHub/ptg-covid/data and code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B12D63A-2256-8F45-9EDE-E4E12B552D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6551BFCC-A3E5-CE4B-99DD-F9B7E6B3E9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="-1460" windowWidth="19200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="134">
   <si>
     <t>Source</t>
   </si>
@@ -224,9 +224,6 @@
   </si>
   <si>
     <t>Wang et. al (2023)</t>
-  </si>
-  <si>
-    <t>College student</t>
   </si>
   <si>
     <t>Castiglioni et. al (2023)</t>
@@ -741,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1899,7 +1896,7 @@
         <v>22.42</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>28</v>
@@ -1940,7 +1937,7 @@
     </row>
     <row r="26" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26" s="1">
         <v>52.81</v>
@@ -1949,7 +1946,7 @@
         <v>20</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>22</v>
@@ -1987,16 +1984,16 @@
     </row>
     <row r="27" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B27" s="1">
         <v>46.68</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>18</v>
@@ -2034,13 +2031,13 @@
     </row>
     <row r="28" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28" s="2">
         <v>25</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>62</v>
@@ -2081,13 +2078,13 @@
     </row>
     <row r="29" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29" s="1">
         <v>22.37</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>28</v>
@@ -2128,13 +2125,13 @@
     </row>
     <row r="30" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B30" s="1">
         <v>41.6</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>35</v>
@@ -2177,7 +2174,7 @@
     </row>
     <row r="31" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B31" s="1">
         <v>34.1</v>
@@ -2224,7 +2221,7 @@
     </row>
     <row r="32" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B32" s="1">
         <v>30.38</v>
@@ -2271,7 +2268,7 @@
     </row>
     <row r="33" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B33" s="1">
         <v>32.14</v>
@@ -2318,7 +2315,7 @@
     </row>
     <row r="34" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B34" s="1">
         <v>34</v>
@@ -2327,7 +2324,7 @@
         <v>16</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>18</v>
@@ -2366,7 +2363,7 @@
     </row>
     <row r="35" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B35" s="1">
         <v>31.04</v>
@@ -2415,7 +2412,7 @@
     </row>
     <row r="36" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B36" s="1">
         <v>51.44</v>
@@ -2424,7 +2421,7 @@
         <v>16</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>22</v>
@@ -2462,16 +2459,16 @@
     </row>
     <row r="37" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>22</v>
@@ -2509,7 +2506,7 @@
     </row>
     <row r="38" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38" s="1">
         <v>47.37</v>
@@ -2557,13 +2554,13 @@
     </row>
     <row r="39" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B39" s="1">
         <v>37.619999999999997</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>31</v>
@@ -2606,7 +2603,7 @@
     </row>
     <row r="40" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B40" s="1">
         <v>44.77</v>
@@ -2615,7 +2612,7 @@
         <v>20</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>18</v>
@@ -2655,7 +2652,7 @@
     </row>
     <row r="41" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B41" s="1">
         <v>41.8</v>
@@ -2664,7 +2661,7 @@
         <v>30</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>22</v>
@@ -2702,7 +2699,7 @@
     </row>
     <row r="42" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B42" s="1">
         <v>41.8</v>
@@ -2749,13 +2746,13 @@
     </row>
     <row r="43" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B43" s="1">
         <v>32.299999999999997</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>25</v>
@@ -2798,10 +2795,10 @@
     </row>
     <row r="44" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>20</v>
@@ -2846,13 +2843,13 @@
     </row>
     <row r="45" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>31</v>
@@ -2893,13 +2890,13 @@
     </row>
     <row r="46" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B46" s="1">
         <v>38.090000000000003</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>47</v>
@@ -2942,10 +2939,10 @@
     </row>
     <row r="47" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>20</v>
@@ -2991,7 +2988,7 @@
     </row>
     <row r="48" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B48" s="1">
         <v>43.1</v>
@@ -3000,7 +2997,7 @@
         <v>30</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>22</v>
@@ -3040,7 +3037,7 @@
     </row>
     <row r="49" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B49" s="1">
         <v>57.29</v>
@@ -3049,7 +3046,7 @@
         <v>16</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>22</v>
@@ -3087,7 +3084,7 @@
     </row>
     <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B50" s="1">
         <v>57.83</v>
@@ -3096,7 +3093,7 @@
         <v>20</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>22</v>
@@ -3136,10 +3133,10 @@
     </row>
     <row r="51" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>30</v>
@@ -3185,7 +3182,7 @@
     </row>
     <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B52" s="1">
         <v>51</v>
@@ -3233,10 +3230,10 @@
     </row>
     <row r="53" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>30</v>
@@ -3280,16 +3277,16 @@
     </row>
     <row r="54" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>18</v>
@@ -3327,16 +3324,16 @@
     </row>
     <row r="55" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>18</v>
@@ -3376,13 +3373,13 @@
     </row>
     <row r="56" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B56" s="1">
         <v>19.89</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>28</v>
@@ -3425,7 +3422,7 @@
     </row>
     <row r="57" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B57" s="1">
         <v>39.5</v>
@@ -3472,7 +3469,7 @@
     </row>
     <row r="58" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B58" s="1">
         <v>30.28</v>
@@ -3481,7 +3478,7 @@
         <v>30</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>22</v>
@@ -3521,13 +3518,13 @@
     </row>
     <row r="59" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B59" s="1">
         <v>32.64</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>28</v>
@@ -3570,7 +3567,7 @@
     </row>
     <row r="60" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B60" s="1">
         <v>26.68</v>
@@ -3617,7 +3614,7 @@
     </row>
     <row r="61" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B61" s="1">
         <v>52</v>
@@ -3626,7 +3623,7 @@
         <v>16</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>22</v>
@@ -3665,7 +3662,7 @@
     </row>
     <row r="62" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B62" s="1">
         <v>30.67</v>
@@ -3674,7 +3671,7 @@
         <v>30</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>22</v>
@@ -3712,7 +3709,7 @@
     </row>
     <row r="63" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B63" s="1">
         <v>41.8</v>
@@ -3721,7 +3718,7 @@
         <v>30</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>22</v>
@@ -3759,7 +3756,7 @@
     </row>
     <row r="64" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B64" s="1">
         <v>51.57</v>
@@ -3807,13 +3804,13 @@
     </row>
     <row r="65" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B65" s="1">
         <v>43.35</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>31</v>
@@ -3855,16 +3852,16 @@
     </row>
     <row r="66" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B66" s="8">
         <v>35</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>22</v>
@@ -3902,7 +3899,7 @@
     </row>
     <row r="67" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B67" s="1">
         <v>30.39</v>
@@ -3949,13 +3946,13 @@
     </row>
     <row r="68" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B68" s="8">
         <v>60</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>28</v>
@@ -3997,7 +3994,7 @@
     </row>
     <row r="69" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B69" s="1">
         <v>41.53</v>
@@ -4044,7 +4041,7 @@
     </row>
     <row r="70" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B70" s="1">
         <v>45.93</v>
@@ -4053,7 +4050,7 @@
         <v>30</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>18</v>
@@ -4091,7 +4088,7 @@
     </row>
     <row r="71" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B71" s="1">
         <v>34.07</v>
@@ -4138,7 +4135,7 @@
     </row>
     <row r="72" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B72" s="1">
         <v>30</v>
@@ -4185,7 +4182,7 @@
     </row>
     <row r="73" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B73" s="1">
         <v>53.61</v>
@@ -4194,7 +4191,7 @@
         <v>16</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>22</v>
@@ -4232,7 +4229,7 @@
     </row>
     <row r="74" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B74" s="1">
         <v>60.8</v>
@@ -4241,7 +4238,7 @@
         <v>16</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>18</v>
@@ -4281,7 +4278,7 @@
     </row>
     <row r="75" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B75" s="1">
         <v>30.3</v>
@@ -4328,16 +4325,16 @@
     </row>
     <row r="76" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B76" s="1">
         <v>21.64</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>22</v>
